--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_23_19.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_23_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>390714.3755850563</v>
+        <v>271586.8746997664</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20799142.37910257</v>
+        <v>20799142.37910258</v>
       </c>
     </row>
     <row r="9">
@@ -1381,19 +1381,19 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>75.27752168542789</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>106.927426003382</v>
       </c>
       <c r="H11" t="n">
-        <v>106.927426003382</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>106.927426003382</v>
       </c>
       <c r="J11" t="n">
-        <v>18.90415513835094</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>93.54238700471562</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -1426,10 +1426,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>106.927426003382</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>0.6392898190632399</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1454,7 +1454,7 @@
         <v>0</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>106.927426003382</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1493,10 +1493,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>9.648220960735628</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>80.34626333461114</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>106.927426003382</v>
@@ -1505,10 +1505,10 @@
         <v>106.927426003382</v>
       </c>
       <c r="U12" t="n">
-        <v>106.927426003382</v>
+        <v>94.18167682377884</v>
       </c>
       <c r="V12" t="n">
-        <v>4.187192528432066</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1560,25 +1560,25 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
+      <c r="R13" t="n">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
         <v>2.920986145532318</v>
-      </c>
-      <c r="N13" t="n">
-        <v>0</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>0</v>
-      </c>
-      <c r="R13" t="n">
-        <v>0</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1612,58 +1612,58 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>106.927426003382</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>106.927426003382</v>
       </c>
       <c r="F14" t="n">
-        <v>75.27752168542794</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>94.1816768237788</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
+      <c r="R14" t="n">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="n">
+        <v>0</v>
+      </c>
+      <c r="U14" t="n">
         <v>106.927426003382</v>
-      </c>
-      <c r="H14" t="n">
-        <v>106.927426003382</v>
-      </c>
-      <c r="I14" t="n">
-        <v>106.927426003382</v>
-      </c>
-      <c r="J14" t="n">
-        <v>18.90415513835094</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>0</v>
-      </c>
-      <c r="R14" t="n">
-        <v>0</v>
-      </c>
-      <c r="S14" t="n">
-        <v>0</v>
-      </c>
-      <c r="T14" t="n">
-        <v>0</v>
-      </c>
-      <c r="U14" t="n">
-        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1697,10 +1697,10 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>106.927426003382</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>13.83541348916769</v>
       </c>
       <c r="H15" t="n">
         <v>0</v>
@@ -1730,7 +1730,7 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>9.648220960735628</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>80.34626333461114</v>
@@ -1739,16 +1739,16 @@
         <v>106.927426003382</v>
       </c>
       <c r="T15" t="n">
+        <v>0</v>
+      </c>
+      <c r="U15" t="n">
+        <v>0</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="n">
         <v>106.927426003382</v>
-      </c>
-      <c r="U15" t="n">
-        <v>106.927426003382</v>
-      </c>
-      <c r="V15" t="n">
-        <v>4.187192528432116</v>
-      </c>
-      <c r="W15" t="n">
-        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
@@ -1797,28 +1797,28 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="n">
         <v>2.920986145532318</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>0</v>
-      </c>
-      <c r="R16" t="n">
-        <v>0</v>
-      </c>
-      <c r="S16" t="n">
-        <v>0</v>
-      </c>
-      <c r="T16" t="n">
-        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1846,7 +1846,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>94.18167682377891</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1855,58 +1855,58 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>75.277521685428</v>
+        <v>106.927426003382</v>
       </c>
       <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
+      <c r="R17" t="n">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="n">
+        <v>0</v>
+      </c>
+      <c r="U17" t="n">
         <v>106.927426003382</v>
       </c>
-      <c r="H17" t="n">
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="n">
         <v>106.927426003382</v>
-      </c>
-      <c r="I17" t="n">
-        <v>106.927426003382</v>
-      </c>
-      <c r="J17" t="n">
-        <v>18.90415513835092</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="n">
-        <v>0</v>
-      </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q17" t="n">
-        <v>0</v>
-      </c>
-      <c r="R17" t="n">
-        <v>0</v>
-      </c>
-      <c r="S17" t="n">
-        <v>0</v>
-      </c>
-      <c r="T17" t="n">
-        <v>0</v>
-      </c>
-      <c r="U17" t="n">
-        <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>0</v>
-      </c>
-      <c r="W17" t="n">
-        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -1934,10 +1934,10 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>106.927426003382</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>4.187192528432116</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1967,25 +1967,25 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>9.6482209607356</v>
+        <v>9.648220960735614</v>
       </c>
       <c r="R18" t="n">
-        <v>80.34626333461112</v>
+        <v>80.34626333461114</v>
       </c>
       <c r="S18" t="n">
-        <v>106.927426003382</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
         <v>106.927426003382</v>
       </c>
       <c r="U18" t="n">
+        <v>0</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="n">
         <v>106.927426003382</v>
-      </c>
-      <c r="V18" t="n">
-        <v>4.187192528432116</v>
-      </c>
-      <c r="W18" t="n">
-        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>2.920986145532346</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2040,7 +2040,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>2.92098614553236</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -2089,13 +2089,13 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>59.07100564090508</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>106.927426003382</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>106.927426003382</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
@@ -2104,7 +2104,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>18.90415513835092</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2125,7 +2125,7 @@
         <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>16.20651604452286</v>
+        <v>16.20651604452291</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -2134,22 +2134,22 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>106.9274260033821</v>
+        <v>106.927426003382</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>106.9274260033821</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>106.9274260033821</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>77.97516077925611</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2171,16 +2171,16 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>63.99962299316287</v>
+        <v>106.927426003382</v>
       </c>
       <c r="G21" t="n">
-        <v>106.9274260033821</v>
+        <v>106.927426003382</v>
       </c>
       <c r="H21" t="n">
-        <v>100.8662920711142</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>62.82435043165499</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,13 +2207,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>80.34626333461111</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>106.927426003382</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>94.1816768237789</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2.920986145532374</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>2.920986145532346</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2317,64 +2317,64 @@
         </is>
       </c>
       <c r="B23" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>94.1816768237789</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
         <v>106.927426003382</v>
       </c>
-      <c r="C23" t="n">
-        <v>0</v>
-      </c>
-      <c r="D23" t="n">
+      <c r="H23" t="n">
         <v>106.927426003382</v>
       </c>
-      <c r="E23" t="n">
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
+      <c r="R23" t="n">
+        <v>0</v>
+      </c>
+      <c r="S23" t="n">
+        <v>0</v>
+      </c>
+      <c r="T23" t="n">
+        <v>0</v>
+      </c>
+      <c r="U23" t="n">
         <v>106.927426003382</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>94.1816768237789</v>
-      </c>
-      <c r="H23" t="n">
-        <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>0</v>
-      </c>
-      <c r="R23" t="n">
-        <v>0</v>
-      </c>
-      <c r="S23" t="n">
-        <v>0</v>
-      </c>
-      <c r="T23" t="n">
-        <v>0</v>
-      </c>
-      <c r="U23" t="n">
-        <v>0</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>106.927426003382</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
         <v>0</v>
@@ -2453,16 +2453,16 @@
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>106.927426003382</v>
+        <v>94.18167682377884</v>
       </c>
       <c r="V24" t="n">
         <v>106.927426003382</v>
       </c>
       <c r="W24" t="n">
-        <v>94.1816768237789</v>
+        <v>106.927426003382</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>106.927426003382</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
@@ -2493,52 +2493,52 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
+        <v>0</v>
+      </c>
+      <c r="S25" t="n">
+        <v>0</v>
+      </c>
+      <c r="T25" t="n">
+        <v>0</v>
+      </c>
+      <c r="U25" t="n">
+        <v>0</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="n">
         <v>2.920986145532346</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>0</v>
-      </c>
-      <c r="S25" t="n">
-        <v>0</v>
-      </c>
-      <c r="T25" t="n">
-        <v>0</v>
-      </c>
-      <c r="U25" t="n">
-        <v>0</v>
-      </c>
-      <c r="V25" t="n">
-        <v>0</v>
-      </c>
-      <c r="W25" t="n">
-        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
         <v>106.927426003382</v>
       </c>
-      <c r="C26" t="n">
-        <v>0</v>
-      </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>106.927426003382</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>106.927426003382</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2614,16 +2614,16 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>106.927426003382</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>106.927426003382</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>94.18167682377873</v>
+        <v>94.18167682377862</v>
       </c>
     </row>
     <row r="27">
@@ -2645,10 +2645,10 @@
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>106.927426003382</v>
       </c>
       <c r="G27" t="n">
-        <v>4.187192528432116</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
@@ -2681,25 +2681,25 @@
         <v>9.648220960735614</v>
       </c>
       <c r="R27" t="n">
-        <v>80.34626333461114</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>106.927426003382</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>106.927426003382</v>
       </c>
       <c r="U27" t="n">
-        <v>106.927426003382</v>
+        <v>0</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>106.927426003382</v>
+        <v>84.53345586304329</v>
       </c>
       <c r="X27" t="n">
-        <v>106.927426003382</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2803,55 +2803,55 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0</v>
+      </c>
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
+        <v>0</v>
+      </c>
+      <c r="L29" t="n">
+        <v>0</v>
+      </c>
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" t="n">
+        <v>0</v>
+      </c>
+      <c r="P29" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>16.20651604452291</v>
+      </c>
+      <c r="R29" t="n">
+        <v>93.54238700471561</v>
+      </c>
+      <c r="S29" t="n">
+        <v>91.36019977792216</v>
+      </c>
+      <c r="T29" t="n">
         <v>106.927426003382</v>
-      </c>
-      <c r="G29" t="n">
-        <v>106.927426003382</v>
-      </c>
-      <c r="H29" t="n">
-        <v>0</v>
-      </c>
-      <c r="I29" t="n">
-        <v>0</v>
-      </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
-      </c>
-      <c r="L29" t="n">
-        <v>0</v>
-      </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="n">
-        <v>0</v>
-      </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q29" t="n">
-        <v>0</v>
-      </c>
-      <c r="R29" t="n">
-        <v>0</v>
-      </c>
-      <c r="S29" t="n">
-        <v>0</v>
-      </c>
-      <c r="T29" t="n">
-        <v>0</v>
       </c>
       <c r="U29" t="n">
         <v>106.927426003382</v>
       </c>
       <c r="V29" t="n">
-        <v>94.18167682377873</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
         <v>0</v>
@@ -2870,7 +2870,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>94.1816768237789</v>
+        <v>4.187192528432116</v>
       </c>
       <c r="C30" t="n">
         <v>0</v>
@@ -2915,16 +2915,16 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>9.648220960735614</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>80.34626333461114</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>106.927426003382</v>
       </c>
       <c r="U30" t="n">
         <v>106.927426003382</v>
@@ -2933,7 +2933,7 @@
         <v>106.927426003382</v>
       </c>
       <c r="W30" t="n">
-        <v>106.927426003382</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
         <v>0</v>
@@ -2964,49 +2964,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
+        <v>0</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
+        <v>0</v>
+      </c>
+      <c r="P31" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
+      <c r="R31" t="n">
+        <v>0</v>
+      </c>
+      <c r="S31" t="n">
+        <v>0</v>
+      </c>
+      <c r="T31" t="n">
+        <v>0</v>
+      </c>
+      <c r="U31" t="n">
         <v>2.920986145532346</v>
-      </c>
-      <c r="H31" t="n">
-        <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>0</v>
-      </c>
-      <c r="R31" t="n">
-        <v>0</v>
-      </c>
-      <c r="S31" t="n">
-        <v>0</v>
-      </c>
-      <c r="T31" t="n">
-        <v>0</v>
-      </c>
-      <c r="U31" t="n">
-        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>77.97516077925599</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3052,7 +3052,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>18.90415513835092</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3082,22 +3082,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>106.927426003382</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>106.927426003382</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>106.927426003382</v>
       </c>
       <c r="W32" t="n">
-        <v>106.927426003382</v>
+        <v>59.07100564090485</v>
       </c>
       <c r="X32" t="n">
-        <v>106.927426003382</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.927426003382</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3122,7 +3122,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>106.927426003382</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3164,19 +3164,19 @@
         <v>0</v>
       </c>
       <c r="U33" t="n">
-        <v>0</v>
+        <v>94.18167682377884</v>
       </c>
       <c r="V33" t="n">
-        <v>106.927426003382</v>
+        <v>0</v>
       </c>
       <c r="W33" t="n">
         <v>106.927426003382</v>
       </c>
       <c r="X33" t="n">
-        <v>94.1816768237789</v>
+        <v>106.927426003382</v>
       </c>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>106.927426003382</v>
       </c>
     </row>
     <row r="34">
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>2.920986145532323</v>
+        <v>2.920986145532346</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3265,70 +3265,70 @@
         </is>
       </c>
       <c r="B35" t="n">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
+        <v>0</v>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" t="n">
+        <v>0</v>
+      </c>
+      <c r="P35" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
+      <c r="R35" t="n">
+        <v>0</v>
+      </c>
+      <c r="S35" t="n">
+        <v>0</v>
+      </c>
+      <c r="T35" t="n">
+        <v>94.18167682377884</v>
+      </c>
+      <c r="U35" t="n">
         <v>106.927426003382</v>
       </c>
-      <c r="C35" t="n">
+      <c r="V35" t="n">
         <v>106.927426003382</v>
       </c>
-      <c r="D35" t="n">
-        <v>0</v>
-      </c>
-      <c r="E35" t="n">
-        <v>94.1816768237789</v>
-      </c>
-      <c r="F35" t="n">
-        <v>0</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0</v>
-      </c>
-      <c r="H35" t="n">
-        <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q35" t="n">
-        <v>0</v>
-      </c>
-      <c r="R35" t="n">
-        <v>0</v>
-      </c>
-      <c r="S35" t="n">
-        <v>0</v>
-      </c>
-      <c r="T35" t="n">
+      <c r="W35" t="n">
         <v>106.927426003382</v>
-      </c>
-      <c r="U35" t="n">
-        <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>0</v>
-      </c>
-      <c r="W35" t="n">
-        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -3344,19 +3344,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0</v>
+        <v>94.18167682377884</v>
       </c>
       <c r="C36" t="n">
-        <v>94.1816768237789</v>
+        <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>0</v>
+        <v>106.927426003382</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>106.927426003382</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>106.927426003382</v>
       </c>
       <c r="G36" t="n">
         <v>0</v>
@@ -3401,13 +3401,13 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>106.927426003382</v>
+        <v>0</v>
       </c>
       <c r="V36" t="n">
-        <v>106.927426003382</v>
+        <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>106.927426003382</v>
+        <v>0</v>
       </c>
       <c r="X36" t="n">
         <v>0</v>
@@ -3435,10 +3435,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>2.920986145532346</v>
       </c>
       <c r="G37" t="n">
-        <v>2.920986145532323</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3502,73 +3502,73 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>106.927426003382</v>
       </c>
       <c r="C38" t="n">
-        <v>94.18167682377884</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>0</v>
+      </c>
+      <c r="P38" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>0.6392898190632399</v>
+      </c>
+      <c r="R38" t="n">
+        <v>93.54238700471561</v>
+      </c>
+      <c r="S38" t="n">
         <v>106.927426003382</v>
       </c>
-      <c r="E38" t="n">
+      <c r="T38" t="n">
+        <v>0</v>
+      </c>
+      <c r="U38" t="n">
+        <v>0</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="n">
+        <v>0</v>
+      </c>
+      <c r="X38" t="n">
         <v>106.927426003382</v>
-      </c>
-      <c r="F38" t="n">
-        <v>106.927426003382</v>
-      </c>
-      <c r="G38" t="n">
-        <v>0</v>
-      </c>
-      <c r="H38" t="n">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>0</v>
-      </c>
-      <c r="R38" t="n">
-        <v>0</v>
-      </c>
-      <c r="S38" t="n">
-        <v>0</v>
-      </c>
-      <c r="T38" t="n">
-        <v>0</v>
-      </c>
-      <c r="U38" t="n">
-        <v>0</v>
-      </c>
-      <c r="V38" t="n">
-        <v>0</v>
-      </c>
-      <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="n">
-        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3584,67 +3584,67 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>106.927426003382</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
       </c>
       <c r="E39" t="n">
-        <v>94.1816768237789</v>
+        <v>0</v>
       </c>
       <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>29.79191335767906</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
+        <v>0</v>
+      </c>
+      <c r="P39" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>9.648220960735614</v>
+      </c>
+      <c r="R39" t="n">
+        <v>80.34626333461114</v>
+      </c>
+      <c r="S39" t="n">
+        <v>0</v>
+      </c>
+      <c r="T39" t="n">
+        <v>0</v>
+      </c>
+      <c r="U39" t="n">
+        <v>81.32270517413509</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="n">
         <v>106.927426003382</v>
-      </c>
-      <c r="G39" t="n">
-        <v>106.927426003382</v>
-      </c>
-      <c r="H39" t="n">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>0</v>
-      </c>
-      <c r="R39" t="n">
-        <v>0</v>
-      </c>
-      <c r="S39" t="n">
-        <v>0</v>
-      </c>
-      <c r="T39" t="n">
-        <v>0</v>
-      </c>
-      <c r="U39" t="n">
-        <v>0</v>
-      </c>
-      <c r="V39" t="n">
-        <v>106.927426003382</v>
-      </c>
-      <c r="W39" t="n">
-        <v>0</v>
       </c>
       <c r="X39" t="n">
         <v>0</v>
@@ -3723,10 +3723,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>2.920986145532346</v>
       </c>
       <c r="X40" t="n">
-        <v>2.920986145532346</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3739,13 +3739,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>94.18167682377884</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>94.1816768237789</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>106.927426003382</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>106.927426003382</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3799,7 +3799,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>106.927426003382</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -3824,13 +3824,13 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
         <v>106.927426003382</v>
       </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
       <c r="F42" t="n">
-        <v>106.927426003382</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3842,7 +3842,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>13.83541348916775</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -3863,7 +3863,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>9.648220960735614</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>80.34626333461114</v>
@@ -3872,16 +3872,16 @@
         <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>106.927426003382</v>
       </c>
       <c r="U42" t="n">
-        <v>4.187192528432075</v>
+        <v>106.927426003382</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="n">
-        <v>106.927426003382</v>
+        <v>0</v>
       </c>
       <c r="X42" t="n">
         <v>0</v>
@@ -3982,10 +3982,10 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0.6392898190632822</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>106.927426003382</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -4021,28 +4021,28 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>0.6392898190632399</v>
       </c>
       <c r="R44" t="n">
         <v>93.54238700471561</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>106.927426003382</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>106.927426003382</v>
       </c>
       <c r="U44" t="n">
-        <v>106.927426003382</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>106.927426003382</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>106.927426003382</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4064,67 +4064,67 @@
         <v>0</v>
       </c>
       <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
+        <v>94.18167682377891</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>0</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0</v>
+      </c>
+      <c r="L45" t="n">
+        <v>0</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0</v>
+      </c>
+      <c r="O45" t="n">
+        <v>0</v>
+      </c>
+      <c r="P45" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
+      <c r="R45" t="n">
+        <v>0</v>
+      </c>
+      <c r="S45" t="n">
+        <v>0</v>
+      </c>
+      <c r="T45" t="n">
+        <v>0</v>
+      </c>
+      <c r="U45" t="n">
+        <v>0</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="n">
         <v>106.927426003382</v>
       </c>
-      <c r="F45" t="n">
+      <c r="X45" t="n">
         <v>106.927426003382</v>
       </c>
-      <c r="G45" t="n">
-        <v>0</v>
-      </c>
-      <c r="H45" t="n">
-        <v>13.83541348916775</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
-        <v>0</v>
-      </c>
-      <c r="L45" t="n">
-        <v>0</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
-      </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>0</v>
-      </c>
-      <c r="R45" t="n">
-        <v>80.34626333461114</v>
-      </c>
-      <c r="S45" t="n">
-        <v>0</v>
-      </c>
-      <c r="T45" t="n">
-        <v>0</v>
-      </c>
-      <c r="U45" t="n">
+      <c r="Y45" t="n">
         <v>106.927426003382</v>
-      </c>
-      <c r="V45" t="n">
-        <v>0</v>
-      </c>
-      <c r="W45" t="n">
-        <v>0</v>
-      </c>
-      <c r="X45" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>2.920986145532346</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -4197,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>2.920986145532346</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -5017,46 +5017,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>427.7097040135279</v>
+        <v>224.5691961073048</v>
       </c>
       <c r="C11" t="n">
-        <v>427.7097040135279</v>
+        <v>224.5691961073048</v>
       </c>
       <c r="D11" t="n">
-        <v>427.7097040135279</v>
+        <v>224.5691961073048</v>
       </c>
       <c r="E11" t="n">
-        <v>427.7097040135279</v>
+        <v>224.5691961073048</v>
       </c>
       <c r="F11" t="n">
-        <v>351.6718033211765</v>
+        <v>224.5691961073048</v>
       </c>
       <c r="G11" t="n">
-        <v>243.6643023076593</v>
+        <v>116.5616950937877</v>
       </c>
       <c r="H11" t="n">
-        <v>135.6568012941422</v>
+        <v>116.5616950937877</v>
       </c>
       <c r="I11" t="n">
-        <v>27.64930028062505</v>
+        <v>8.554194080270557</v>
       </c>
       <c r="J11" t="n">
         <v>8.554194080270557</v>
       </c>
       <c r="K11" t="n">
-        <v>29.97514549595309</v>
+        <v>29.97514549595314</v>
       </c>
       <c r="L11" t="n">
-        <v>92.52894770869227</v>
+        <v>92.52894770869233</v>
       </c>
       <c r="M11" t="n">
-        <v>193.0098070056914</v>
+        <v>193.0098070056915</v>
       </c>
       <c r="N11" t="n">
-        <v>298.8679587490397</v>
+        <v>298.8679587490398</v>
       </c>
       <c r="O11" t="n">
-        <v>386.530353808742</v>
+        <v>386.5303538087421</v>
       </c>
       <c r="P11" t="n">
         <v>427.7097040135279</v>
@@ -5065,28 +5065,28 @@
         <v>427.7097040135279</v>
       </c>
       <c r="R11" t="n">
-        <v>427.7097040135279</v>
+        <v>333.222444412805</v>
       </c>
       <c r="S11" t="n">
-        <v>427.7097040135279</v>
+        <v>333.222444412805</v>
       </c>
       <c r="T11" t="n">
-        <v>427.7097040135279</v>
+        <v>333.222444412805</v>
       </c>
       <c r="U11" t="n">
-        <v>427.7097040135279</v>
+        <v>225.2149433992879</v>
       </c>
       <c r="V11" t="n">
-        <v>427.7097040135279</v>
+        <v>224.5691961073048</v>
       </c>
       <c r="W11" t="n">
-        <v>427.7097040135279</v>
+        <v>224.5691961073048</v>
       </c>
       <c r="X11" t="n">
-        <v>427.7097040135279</v>
+        <v>224.5691961073048</v>
       </c>
       <c r="Y11" t="n">
-        <v>427.7097040135279</v>
+        <v>224.5691961073048</v>
       </c>
     </row>
     <row r="12">
@@ -5096,10 +5096,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8.554194080270557</v>
+        <v>116.5616950937877</v>
       </c>
       <c r="C12" t="n">
-        <v>8.554194080270557</v>
+        <v>116.5616950937877</v>
       </c>
       <c r="D12" t="n">
         <v>8.554194080270557</v>
@@ -5123,16 +5123,16 @@
         <v>8.554194080270557</v>
       </c>
       <c r="K12" t="n">
-        <v>34.34521432379854</v>
+        <v>8.554194080270557</v>
       </c>
       <c r="L12" t="n">
-        <v>114.1889014770819</v>
+        <v>88.39788123355392</v>
       </c>
       <c r="M12" t="n">
-        <v>220.04705322043</v>
+        <v>166.9298830339596</v>
       </c>
       <c r="N12" t="n">
-        <v>325.9052049637781</v>
+        <v>272.7880347773078</v>
       </c>
       <c r="O12" t="n">
         <v>369.1890943922168</v>
@@ -5141,31 +5141,31 @@
         <v>427.7097040135279</v>
       </c>
       <c r="Q12" t="n">
-        <v>417.9640262754111</v>
+        <v>427.7097040135279</v>
       </c>
       <c r="R12" t="n">
-        <v>336.8061845232786</v>
+        <v>427.7097040135279</v>
       </c>
       <c r="S12" t="n">
-        <v>228.7986835097615</v>
+        <v>319.7022030000107</v>
       </c>
       <c r="T12" t="n">
-        <v>120.7911824962443</v>
+        <v>211.6947019864936</v>
       </c>
       <c r="U12" t="n">
-        <v>12.78368148272719</v>
+        <v>116.5616950937877</v>
       </c>
       <c r="V12" t="n">
-        <v>8.554194080270557</v>
+        <v>116.5616950937877</v>
       </c>
       <c r="W12" t="n">
-        <v>8.554194080270557</v>
+        <v>116.5616950937877</v>
       </c>
       <c r="X12" t="n">
-        <v>8.554194080270557</v>
+        <v>116.5616950937877</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.554194080270557</v>
+        <v>116.5616950937877</v>
       </c>
     </row>
     <row r="13">
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>11.50468513636381</v>
+        <v>8.554194080270557</v>
       </c>
       <c r="C13" t="n">
-        <v>11.50468513636381</v>
+        <v>8.554194080270557</v>
       </c>
       <c r="D13" t="n">
-        <v>11.50468513636381</v>
+        <v>8.554194080270557</v>
       </c>
       <c r="E13" t="n">
-        <v>11.50468513636381</v>
+        <v>8.554194080270557</v>
       </c>
       <c r="F13" t="n">
-        <v>11.50468513636381</v>
+        <v>8.554194080270557</v>
       </c>
       <c r="G13" t="n">
-        <v>11.50468513636381</v>
+        <v>8.554194080270557</v>
       </c>
       <c r="H13" t="n">
-        <v>11.50468513636381</v>
+        <v>8.554194080270557</v>
       </c>
       <c r="I13" t="n">
-        <v>11.50468513636381</v>
+        <v>8.554194080270557</v>
       </c>
       <c r="J13" t="n">
-        <v>11.50468513636381</v>
+        <v>8.554194080270557</v>
       </c>
       <c r="K13" t="n">
-        <v>11.50468513636381</v>
+        <v>8.554194080270557</v>
       </c>
       <c r="L13" t="n">
-        <v>11.50468513636381</v>
+        <v>8.554194080270557</v>
       </c>
       <c r="M13" t="n">
         <v>8.554194080270557</v>
@@ -5226,25 +5226,25 @@
         <v>11.50468513636381</v>
       </c>
       <c r="S13" t="n">
-        <v>11.50468513636381</v>
+        <v>8.554194080270557</v>
       </c>
       <c r="T13" t="n">
-        <v>11.50468513636381</v>
+        <v>8.554194080270557</v>
       </c>
       <c r="U13" t="n">
-        <v>11.50468513636381</v>
+        <v>8.554194080270557</v>
       </c>
       <c r="V13" t="n">
-        <v>11.50468513636381</v>
+        <v>8.554194080270557</v>
       </c>
       <c r="W13" t="n">
-        <v>11.50468513636381</v>
+        <v>8.554194080270557</v>
       </c>
       <c r="X13" t="n">
-        <v>11.50468513636381</v>
+        <v>8.554194080270557</v>
       </c>
       <c r="Y13" t="n">
-        <v>11.50468513636381</v>
+        <v>8.554194080270557</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>427.7097040135282</v>
+        <v>319.7022030000107</v>
       </c>
       <c r="C14" t="n">
-        <v>427.7097040135282</v>
+        <v>319.7022030000107</v>
       </c>
       <c r="D14" t="n">
-        <v>427.7097040135282</v>
+        <v>211.6947019864936</v>
       </c>
       <c r="E14" t="n">
-        <v>427.7097040135282</v>
+        <v>103.6872009729764</v>
       </c>
       <c r="F14" t="n">
-        <v>351.6718033211767</v>
+        <v>103.6872009729764</v>
       </c>
       <c r="G14" t="n">
-        <v>243.6643023076595</v>
+        <v>103.6872009729764</v>
       </c>
       <c r="H14" t="n">
-        <v>135.6568012941423</v>
+        <v>103.6872009729764</v>
       </c>
       <c r="I14" t="n">
-        <v>27.64930028062505</v>
+        <v>8.554194080270559</v>
       </c>
       <c r="J14" t="n">
-        <v>8.554194080270562</v>
+        <v>8.554194080270559</v>
       </c>
       <c r="K14" t="n">
-        <v>29.97514549595307</v>
+        <v>29.97514549595309</v>
       </c>
       <c r="L14" t="n">
-        <v>92.52894770869226</v>
+        <v>92.52894770869227</v>
       </c>
       <c r="M14" t="n">
-        <v>193.0098070056918</v>
+        <v>193.0098070056916</v>
       </c>
       <c r="N14" t="n">
-        <v>298.86795874904</v>
+        <v>298.8679587490399</v>
       </c>
       <c r="O14" t="n">
-        <v>386.5303538087423</v>
+        <v>386.5303538087421</v>
       </c>
       <c r="P14" t="n">
-        <v>427.7097040135282</v>
+        <v>427.7097040135279</v>
       </c>
       <c r="Q14" t="n">
-        <v>427.7097040135282</v>
+        <v>427.7097040135279</v>
       </c>
       <c r="R14" t="n">
-        <v>427.7097040135282</v>
+        <v>427.7097040135279</v>
       </c>
       <c r="S14" t="n">
-        <v>427.7097040135282</v>
+        <v>427.7097040135279</v>
       </c>
       <c r="T14" t="n">
-        <v>427.7097040135282</v>
+        <v>427.7097040135279</v>
       </c>
       <c r="U14" t="n">
-        <v>427.7097040135282</v>
+        <v>319.7022030000107</v>
       </c>
       <c r="V14" t="n">
-        <v>427.7097040135282</v>
+        <v>319.7022030000107</v>
       </c>
       <c r="W14" t="n">
-        <v>427.7097040135282</v>
+        <v>319.7022030000107</v>
       </c>
       <c r="X14" t="n">
-        <v>427.7097040135282</v>
+        <v>319.7022030000107</v>
       </c>
       <c r="Y14" t="n">
-        <v>427.7097040135282</v>
+        <v>319.7022030000107</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>8.554194080270562</v>
+        <v>130.5368602343611</v>
       </c>
       <c r="C15" t="n">
-        <v>8.554194080270562</v>
+        <v>130.5368602343611</v>
       </c>
       <c r="D15" t="n">
-        <v>8.554194080270562</v>
+        <v>130.5368602343611</v>
       </c>
       <c r="E15" t="n">
-        <v>8.554194080270562</v>
+        <v>130.5368602343611</v>
       </c>
       <c r="F15" t="n">
-        <v>8.554194080270562</v>
+        <v>22.52935922084399</v>
       </c>
       <c r="G15" t="n">
-        <v>8.554194080270562</v>
+        <v>8.554194080270559</v>
       </c>
       <c r="H15" t="n">
-        <v>8.554194080270562</v>
+        <v>8.554194080270559</v>
       </c>
       <c r="I15" t="n">
-        <v>8.554194080270562</v>
+        <v>8.554194080270559</v>
       </c>
       <c r="J15" t="n">
-        <v>8.554194080270562</v>
+        <v>8.554194080270559</v>
       </c>
       <c r="K15" t="n">
-        <v>8.554194080270562</v>
+        <v>34.34521432379854</v>
       </c>
       <c r="L15" t="n">
-        <v>88.39788123355392</v>
+        <v>114.1889014770819</v>
       </c>
       <c r="M15" t="n">
-        <v>194.2560329769021</v>
+        <v>220.0470532204301</v>
       </c>
       <c r="N15" t="n">
-        <v>300.1141847202504</v>
+        <v>272.7880347773079</v>
       </c>
       <c r="O15" t="n">
-        <v>369.189094392217</v>
+        <v>369.1890943922168</v>
       </c>
       <c r="P15" t="n">
-        <v>427.7097040135282</v>
+        <v>427.7097040135279</v>
       </c>
       <c r="Q15" t="n">
-        <v>417.9640262754114</v>
+        <v>427.7097040135279</v>
       </c>
       <c r="R15" t="n">
-        <v>336.8061845232789</v>
+        <v>346.5518622613955</v>
       </c>
       <c r="S15" t="n">
-        <v>228.7986835097617</v>
+        <v>238.5443612478783</v>
       </c>
       <c r="T15" t="n">
-        <v>120.7911824962445</v>
+        <v>238.5443612478783</v>
       </c>
       <c r="U15" t="n">
-        <v>12.78368148272725</v>
+        <v>238.5443612478783</v>
       </c>
       <c r="V15" t="n">
-        <v>8.554194080270562</v>
+        <v>238.5443612478783</v>
       </c>
       <c r="W15" t="n">
-        <v>8.554194080270562</v>
+        <v>130.5368602343611</v>
       </c>
       <c r="X15" t="n">
-        <v>8.554194080270562</v>
+        <v>130.5368602343611</v>
       </c>
       <c r="Y15" t="n">
-        <v>8.554194080270562</v>
+        <v>130.5368602343611</v>
       </c>
     </row>
     <row r="16">
@@ -5412,40 +5412,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>11.50468513636381</v>
+        <v>8.554194080270559</v>
       </c>
       <c r="C16" t="n">
-        <v>11.50468513636381</v>
+        <v>8.554194080270559</v>
       </c>
       <c r="D16" t="n">
-        <v>11.50468513636381</v>
+        <v>8.554194080270559</v>
       </c>
       <c r="E16" t="n">
-        <v>11.50468513636381</v>
+        <v>8.554194080270559</v>
       </c>
       <c r="F16" t="n">
-        <v>11.50468513636381</v>
+        <v>8.554194080270559</v>
       </c>
       <c r="G16" t="n">
-        <v>11.50468513636381</v>
+        <v>8.554194080270559</v>
       </c>
       <c r="H16" t="n">
-        <v>11.50468513636381</v>
+        <v>8.554194080270559</v>
       </c>
       <c r="I16" t="n">
-        <v>11.50468513636381</v>
+        <v>8.554194080270559</v>
       </c>
       <c r="J16" t="n">
-        <v>11.50468513636381</v>
+        <v>8.554194080270559</v>
       </c>
       <c r="K16" t="n">
-        <v>11.50468513636381</v>
+        <v>8.554194080270559</v>
       </c>
       <c r="L16" t="n">
-        <v>11.50468513636381</v>
+        <v>8.554194080270559</v>
       </c>
       <c r="M16" t="n">
-        <v>8.554194080270562</v>
+        <v>8.554194080270559</v>
       </c>
       <c r="N16" t="n">
         <v>11.50468513636381</v>
@@ -5466,22 +5466,22 @@
         <v>11.50468513636381</v>
       </c>
       <c r="T16" t="n">
-        <v>11.50468513636381</v>
+        <v>8.554194080270559</v>
       </c>
       <c r="U16" t="n">
-        <v>11.50468513636381</v>
+        <v>8.554194080270559</v>
       </c>
       <c r="V16" t="n">
-        <v>11.50468513636381</v>
+        <v>8.554194080270559</v>
       </c>
       <c r="W16" t="n">
-        <v>11.50468513636381</v>
+        <v>8.554194080270559</v>
       </c>
       <c r="X16" t="n">
-        <v>11.50468513636381</v>
+        <v>8.554194080270559</v>
       </c>
       <c r="Y16" t="n">
-        <v>11.50468513636381</v>
+        <v>8.554194080270559</v>
       </c>
     </row>
     <row r="17">
@@ -5491,46 +5491,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>427.7097040135282</v>
+        <v>211.6947019864938</v>
       </c>
       <c r="C17" t="n">
-        <v>427.7097040135282</v>
+        <v>116.5616950937878</v>
       </c>
       <c r="D17" t="n">
-        <v>427.7097040135282</v>
+        <v>116.5616950937878</v>
       </c>
       <c r="E17" t="n">
-        <v>427.7097040135282</v>
+        <v>116.5616950937878</v>
       </c>
       <c r="F17" t="n">
-        <v>351.6718033211766</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="G17" t="n">
-        <v>243.6643023076595</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="H17" t="n">
-        <v>135.6568012941422</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="I17" t="n">
-        <v>27.64930028062502</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="J17" t="n">
         <v>8.554194080270562</v>
       </c>
       <c r="K17" t="n">
-        <v>29.97514549595307</v>
+        <v>29.97514549595314</v>
       </c>
       <c r="L17" t="n">
-        <v>92.52894770869237</v>
+        <v>92.52894770869239</v>
       </c>
       <c r="M17" t="n">
         <v>193.0098070056916</v>
       </c>
       <c r="N17" t="n">
-        <v>298.8679587490398</v>
+        <v>298.8679587490399</v>
       </c>
       <c r="O17" t="n">
-        <v>386.5303538087422</v>
+        <v>386.5303538087423</v>
       </c>
       <c r="P17" t="n">
         <v>427.7097040135282</v>
@@ -5548,19 +5548,19 @@
         <v>427.7097040135282</v>
       </c>
       <c r="U17" t="n">
-        <v>427.7097040135282</v>
+        <v>319.702203000011</v>
       </c>
       <c r="V17" t="n">
-        <v>427.7097040135282</v>
+        <v>319.702203000011</v>
       </c>
       <c r="W17" t="n">
-        <v>427.7097040135282</v>
+        <v>211.6947019864938</v>
       </c>
       <c r="X17" t="n">
-        <v>427.7097040135282</v>
+        <v>211.6947019864938</v>
       </c>
       <c r="Y17" t="n">
-        <v>427.7097040135282</v>
+        <v>211.6947019864938</v>
       </c>
     </row>
     <row r="18">
@@ -5570,19 +5570,19 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>8.554194080270562</v>
+        <v>120.7911824962445</v>
       </c>
       <c r="C18" t="n">
-        <v>8.554194080270562</v>
+        <v>120.7911824962445</v>
       </c>
       <c r="D18" t="n">
-        <v>8.554194080270562</v>
+        <v>120.7911824962445</v>
       </c>
       <c r="E18" t="n">
-        <v>8.554194080270562</v>
+        <v>120.7911824962445</v>
       </c>
       <c r="F18" t="n">
-        <v>8.554194080270562</v>
+        <v>12.78368148272725</v>
       </c>
       <c r="G18" t="n">
         <v>8.554194080270562</v>
@@ -5597,19 +5597,19 @@
         <v>8.554194080270562</v>
       </c>
       <c r="K18" t="n">
-        <v>8.554194080270562</v>
+        <v>34.34521432379858</v>
       </c>
       <c r="L18" t="n">
-        <v>88.39788123355397</v>
+        <v>114.188901477082</v>
       </c>
       <c r="M18" t="n">
-        <v>166.9298830339598</v>
+        <v>220.0470532204302</v>
       </c>
       <c r="N18" t="n">
-        <v>272.788034777308</v>
+        <v>325.9052049637784</v>
       </c>
       <c r="O18" t="n">
-        <v>369.189094392217</v>
+        <v>422.3062645786874</v>
       </c>
       <c r="P18" t="n">
         <v>427.7097040135282</v>
@@ -5621,25 +5621,25 @@
         <v>336.8061845232789</v>
       </c>
       <c r="S18" t="n">
+        <v>336.8061845232789</v>
+      </c>
+      <c r="T18" t="n">
         <v>228.7986835097617</v>
       </c>
-      <c r="T18" t="n">
+      <c r="U18" t="n">
+        <v>228.7986835097617</v>
+      </c>
+      <c r="V18" t="n">
+        <v>228.7986835097617</v>
+      </c>
+      <c r="W18" t="n">
         <v>120.7911824962445</v>
       </c>
-      <c r="U18" t="n">
-        <v>12.78368148272725</v>
-      </c>
-      <c r="V18" t="n">
-        <v>8.554194080270562</v>
-      </c>
-      <c r="W18" t="n">
-        <v>8.554194080270562</v>
-      </c>
       <c r="X18" t="n">
-        <v>8.554194080270562</v>
+        <v>120.7911824962445</v>
       </c>
       <c r="Y18" t="n">
-        <v>8.554194080270562</v>
+        <v>120.7911824962445</v>
       </c>
     </row>
     <row r="19">
@@ -5649,19 +5649,19 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>8.554194080270562</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="C19" t="n">
-        <v>8.554194080270562</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="D19" t="n">
-        <v>8.554194080270562</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="E19" t="n">
-        <v>8.554194080270562</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="F19" t="n">
-        <v>8.554194080270562</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="G19" t="n">
         <v>8.554194080270562</v>
@@ -5685,40 +5685,40 @@
         <v>8.554194080270562</v>
       </c>
       <c r="N19" t="n">
-        <v>11.50468513636386</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="O19" t="n">
-        <v>8.554194080270562</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="P19" t="n">
-        <v>8.554194080270562</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="Q19" t="n">
-        <v>8.554194080270562</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="R19" t="n">
-        <v>8.554194080270562</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="S19" t="n">
-        <v>8.554194080270562</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="T19" t="n">
-        <v>8.554194080270562</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="U19" t="n">
-        <v>8.554194080270562</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="V19" t="n">
-        <v>8.554194080270562</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="W19" t="n">
-        <v>8.554194080270562</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="X19" t="n">
-        <v>8.554194080270562</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="Y19" t="n">
-        <v>8.554194080270562</v>
+        <v>11.50468513636384</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>8.554194080270568</v>
+        <v>303.3319847732201</v>
       </c>
       <c r="C20" t="n">
-        <v>8.554194080270568</v>
+        <v>303.3319847732201</v>
       </c>
       <c r="D20" t="n">
-        <v>8.554194080270568</v>
+        <v>303.3319847732201</v>
       </c>
       <c r="E20" t="n">
-        <v>8.554194080270568</v>
+        <v>243.6643023076595</v>
       </c>
       <c r="F20" t="n">
-        <v>8.554194080270568</v>
+        <v>135.6568012941422</v>
       </c>
       <c r="G20" t="n">
-        <v>8.554194080270568</v>
+        <v>27.64930028062502</v>
       </c>
       <c r="H20" t="n">
-        <v>8.554194080270568</v>
+        <v>27.64930028062502</v>
       </c>
       <c r="I20" t="n">
-        <v>8.554194080270568</v>
+        <v>27.64930028062502</v>
       </c>
       <c r="J20" t="n">
-        <v>8.554194080270568</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="K20" t="n">
-        <v>29.9751454959532</v>
+        <v>29.97514549595314</v>
       </c>
       <c r="L20" t="n">
-        <v>92.5289477086925</v>
+        <v>92.52894770869239</v>
       </c>
       <c r="M20" t="n">
-        <v>193.0098070056918</v>
+        <v>193.0098070056916</v>
       </c>
       <c r="N20" t="n">
-        <v>298.8679587490401</v>
+        <v>298.8679587490399</v>
       </c>
       <c r="O20" t="n">
-        <v>386.5303538087425</v>
+        <v>386.5303538087423</v>
       </c>
       <c r="P20" t="n">
-        <v>427.7097040135284</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="Q20" t="n">
-        <v>411.3394857867376</v>
+        <v>411.3394857867373</v>
       </c>
       <c r="R20" t="n">
-        <v>411.3394857867376</v>
+        <v>411.3394857867373</v>
       </c>
       <c r="S20" t="n">
-        <v>411.3394857867376</v>
+        <v>411.3394857867373</v>
       </c>
       <c r="T20" t="n">
-        <v>303.3319847732204</v>
+        <v>303.3319847732201</v>
       </c>
       <c r="U20" t="n">
-        <v>303.3319847732204</v>
+        <v>303.3319847732201</v>
       </c>
       <c r="V20" t="n">
-        <v>195.3244837597031</v>
+        <v>303.3319847732201</v>
       </c>
       <c r="W20" t="n">
-        <v>87.31698274618583</v>
+        <v>303.3319847732201</v>
       </c>
       <c r="X20" t="n">
-        <v>87.31698274618583</v>
+        <v>303.3319847732201</v>
       </c>
       <c r="Y20" t="n">
-        <v>8.554194080270568</v>
+        <v>303.3319847732201</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>346.551862261396</v>
+        <v>224.569196107305</v>
       </c>
       <c r="C21" t="n">
-        <v>346.551862261396</v>
+        <v>224.569196107305</v>
       </c>
       <c r="D21" t="n">
-        <v>346.551862261396</v>
+        <v>224.569196107305</v>
       </c>
       <c r="E21" t="n">
-        <v>346.551862261396</v>
+        <v>224.569196107305</v>
       </c>
       <c r="F21" t="n">
-        <v>281.9057784299183</v>
+        <v>116.5616950937878</v>
       </c>
       <c r="G21" t="n">
-        <v>173.8982774164011</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="H21" t="n">
-        <v>72.01313391022511</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="I21" t="n">
-        <v>8.554194080270568</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="J21" t="n">
-        <v>8.554194080270568</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="K21" t="n">
-        <v>34.34521432379861</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="L21" t="n">
-        <v>114.1889014770821</v>
+        <v>88.39788123355395</v>
       </c>
       <c r="M21" t="n">
-        <v>220.0470532204303</v>
+        <v>194.2560329769022</v>
       </c>
       <c r="N21" t="n">
-        <v>272.7880347773082</v>
+        <v>272.788034777308</v>
       </c>
       <c r="O21" t="n">
-        <v>369.1890943922172</v>
+        <v>369.189094392217</v>
       </c>
       <c r="P21" t="n">
-        <v>427.7097040135284</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="Q21" t="n">
-        <v>427.7097040135284</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="R21" t="n">
-        <v>346.551862261396</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="S21" t="n">
-        <v>346.551862261396</v>
+        <v>319.702203000011</v>
       </c>
       <c r="T21" t="n">
-        <v>346.551862261396</v>
+        <v>224.569196107305</v>
       </c>
       <c r="U21" t="n">
-        <v>346.551862261396</v>
+        <v>224.569196107305</v>
       </c>
       <c r="V21" t="n">
-        <v>346.551862261396</v>
+        <v>224.569196107305</v>
       </c>
       <c r="W21" t="n">
-        <v>346.551862261396</v>
+        <v>224.569196107305</v>
       </c>
       <c r="X21" t="n">
-        <v>346.551862261396</v>
+        <v>224.569196107305</v>
       </c>
       <c r="Y21" t="n">
-        <v>346.551862261396</v>
+        <v>224.569196107305</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>8.554194080270568</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="C22" t="n">
-        <v>8.554194080270568</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="D22" t="n">
-        <v>8.554194080270568</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="E22" t="n">
-        <v>8.554194080270568</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="F22" t="n">
-        <v>8.554194080270568</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="G22" t="n">
-        <v>8.554194080270568</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="H22" t="n">
-        <v>8.554194080270568</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="I22" t="n">
-        <v>8.554194080270568</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="J22" t="n">
-        <v>8.554194080270568</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="K22" t="n">
-        <v>8.554194080270568</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="L22" t="n">
-        <v>8.554194080270568</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="M22" t="n">
-        <v>8.554194080270568</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="N22" t="n">
-        <v>11.50468513636388</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="O22" t="n">
-        <v>11.50468513636388</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="P22" t="n">
-        <v>11.50468513636388</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="Q22" t="n">
-        <v>11.50468513636388</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="R22" t="n">
-        <v>11.50468513636388</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="S22" t="n">
-        <v>11.50468513636388</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="T22" t="n">
-        <v>11.50468513636388</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="U22" t="n">
-        <v>11.50468513636388</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="V22" t="n">
-        <v>11.50468513636388</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="W22" t="n">
-        <v>11.50468513636388</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="X22" t="n">
-        <v>11.50468513636388</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="Y22" t="n">
-        <v>11.50468513636388</v>
+        <v>11.50468513636384</v>
       </c>
     </row>
     <row r="23">
@@ -5965,22 +5965,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>319.7022030000109</v>
+        <v>319.702203000011</v>
       </c>
       <c r="C23" t="n">
-        <v>319.7022030000109</v>
+        <v>319.702203000011</v>
       </c>
       <c r="D23" t="n">
-        <v>211.6947019864937</v>
+        <v>319.702203000011</v>
       </c>
       <c r="E23" t="n">
-        <v>103.6872009729765</v>
+        <v>224.569196107305</v>
       </c>
       <c r="F23" t="n">
-        <v>103.6872009729765</v>
+        <v>224.569196107305</v>
       </c>
       <c r="G23" t="n">
-        <v>8.554194080270562</v>
+        <v>116.5616950937878</v>
       </c>
       <c r="H23" t="n">
         <v>8.554194080270562</v>
@@ -5992,49 +5992,49 @@
         <v>8.554194080270562</v>
       </c>
       <c r="K23" t="n">
-        <v>29.97514549595309</v>
+        <v>29.97514549595326</v>
       </c>
       <c r="L23" t="n">
-        <v>92.52894770869233</v>
+        <v>92.5289477086925</v>
       </c>
       <c r="M23" t="n">
-        <v>193.0098070056916</v>
+        <v>193.0098070056918</v>
       </c>
       <c r="N23" t="n">
-        <v>298.8679587490399</v>
+        <v>298.86795874904</v>
       </c>
       <c r="O23" t="n">
-        <v>386.5303538087422</v>
+        <v>386.5303538087423</v>
       </c>
       <c r="P23" t="n">
-        <v>427.7097040135281</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="Q23" t="n">
-        <v>427.7097040135281</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="R23" t="n">
-        <v>427.7097040135281</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="S23" t="n">
-        <v>427.7097040135281</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="T23" t="n">
-        <v>427.7097040135281</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="U23" t="n">
-        <v>427.7097040135281</v>
+        <v>319.702203000011</v>
       </c>
       <c r="V23" t="n">
-        <v>427.7097040135281</v>
+        <v>319.702203000011</v>
       </c>
       <c r="W23" t="n">
-        <v>427.7097040135281</v>
+        <v>319.702203000011</v>
       </c>
       <c r="X23" t="n">
-        <v>427.7097040135281</v>
+        <v>319.702203000011</v>
       </c>
       <c r="Y23" t="n">
-        <v>427.7097040135281</v>
+        <v>319.702203000011</v>
       </c>
     </row>
     <row r="24">
@@ -6086,34 +6086,34 @@
         <v>369.189094392217</v>
       </c>
       <c r="P24" t="n">
-        <v>427.7097040135281</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="Q24" t="n">
-        <v>427.7097040135281</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="R24" t="n">
-        <v>427.7097040135281</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="S24" t="n">
-        <v>427.7097040135281</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="T24" t="n">
-        <v>427.7097040135281</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="U24" t="n">
-        <v>319.7022030000109</v>
+        <v>332.5766971208222</v>
       </c>
       <c r="V24" t="n">
-        <v>211.6947019864937</v>
+        <v>224.569196107305</v>
       </c>
       <c r="W24" t="n">
         <v>116.5616950937878</v>
       </c>
       <c r="X24" t="n">
-        <v>116.5616950937878</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="Y24" t="n">
-        <v>116.5616950937878</v>
+        <v>8.554194080270562</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>11.50468513636384</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="C25" t="n">
-        <v>11.50468513636384</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="D25" t="n">
-        <v>11.50468513636384</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="E25" t="n">
-        <v>11.50468513636384</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="F25" t="n">
-        <v>11.50468513636384</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="G25" t="n">
-        <v>11.50468513636384</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="H25" t="n">
         <v>8.554194080270562</v>
@@ -6186,13 +6186,13 @@
         <v>11.50468513636384</v>
       </c>
       <c r="W25" t="n">
-        <v>11.50468513636384</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="X25" t="n">
-        <v>11.50468513636384</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="Y25" t="n">
-        <v>11.50468513636384</v>
+        <v>8.554194080270562</v>
       </c>
     </row>
     <row r="26">
@@ -6202,13 +6202,13 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>8.554194080270562</v>
+        <v>332.5766971208222</v>
       </c>
       <c r="C26" t="n">
-        <v>8.554194080270562</v>
+        <v>224.569196107305</v>
       </c>
       <c r="D26" t="n">
-        <v>8.554194080270562</v>
+        <v>116.5616950937878</v>
       </c>
       <c r="E26" t="n">
         <v>8.554194080270562</v>
@@ -6262,16 +6262,16 @@
         <v>427.7097040135279</v>
       </c>
       <c r="V26" t="n">
-        <v>319.7022030000107</v>
+        <v>427.7097040135279</v>
       </c>
       <c r="W26" t="n">
-        <v>319.7022030000107</v>
+        <v>427.7097040135279</v>
       </c>
       <c r="X26" t="n">
-        <v>211.6947019864936</v>
+        <v>427.7097040135279</v>
       </c>
       <c r="Y26" t="n">
-        <v>116.5616950937878</v>
+        <v>332.5766971208222</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>12.78368148272725</v>
+        <v>116.5616950937878</v>
       </c>
       <c r="C27" t="n">
-        <v>12.78368148272725</v>
+        <v>116.5616950937878</v>
       </c>
       <c r="D27" t="n">
-        <v>12.78368148272725</v>
+        <v>116.5616950937878</v>
       </c>
       <c r="E27" t="n">
-        <v>12.78368148272725</v>
+        <v>116.5616950937878</v>
       </c>
       <c r="F27" t="n">
-        <v>12.78368148272725</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="G27" t="n">
         <v>8.554194080270562</v>
@@ -6314,43 +6314,43 @@
         <v>88.39788123355395</v>
       </c>
       <c r="M27" t="n">
-        <v>194.2560329769021</v>
+        <v>194.2560329769022</v>
       </c>
       <c r="N27" t="n">
         <v>300.1141847202504</v>
       </c>
       <c r="O27" t="n">
-        <v>369.189094392217</v>
+        <v>396.5152443351594</v>
       </c>
       <c r="P27" t="n">
-        <v>427.7097040135281</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="Q27" t="n">
-        <v>417.9640262754113</v>
+        <v>417.9640262754114</v>
       </c>
       <c r="R27" t="n">
-        <v>336.8061845232788</v>
+        <v>417.9640262754114</v>
       </c>
       <c r="S27" t="n">
-        <v>336.8061845232788</v>
+        <v>309.9565252618942</v>
       </c>
       <c r="T27" t="n">
-        <v>336.8061845232788</v>
+        <v>201.949024248377</v>
       </c>
       <c r="U27" t="n">
-        <v>228.7986835097616</v>
+        <v>201.949024248377</v>
       </c>
       <c r="V27" t="n">
-        <v>228.7986835097616</v>
+        <v>201.949024248377</v>
       </c>
       <c r="W27" t="n">
-        <v>120.7911824962444</v>
+        <v>116.5616950937878</v>
       </c>
       <c r="X27" t="n">
-        <v>12.78368148272725</v>
+        <v>116.5616950937878</v>
       </c>
       <c r="Y27" t="n">
-        <v>12.78368148272725</v>
+        <v>116.5616950937878</v>
       </c>
     </row>
     <row r="28">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>224.5691961073049</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="C29" t="n">
-        <v>224.5691961073049</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="D29" t="n">
-        <v>224.5691961073049</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="E29" t="n">
-        <v>224.5691961073049</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="F29" t="n">
-        <v>116.5616950937878</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="G29" t="n">
         <v>8.554194080270562</v>
@@ -6484,31 +6484,31 @@
         <v>427.7097040135279</v>
       </c>
       <c r="Q29" t="n">
-        <v>427.7097040135279</v>
+        <v>411.3394857867371</v>
       </c>
       <c r="R29" t="n">
-        <v>427.7097040135279</v>
+        <v>316.8522261860143</v>
       </c>
       <c r="S29" t="n">
-        <v>427.7097040135279</v>
+        <v>224.569196107305</v>
       </c>
       <c r="T29" t="n">
-        <v>427.7097040135279</v>
+        <v>116.5616950937878</v>
       </c>
       <c r="U29" t="n">
-        <v>319.7022030000107</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="V29" t="n">
-        <v>224.5691961073049</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="W29" t="n">
-        <v>224.5691961073049</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="X29" t="n">
-        <v>224.5691961073049</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="Y29" t="n">
-        <v>224.5691961073049</v>
+        <v>8.554194080270562</v>
       </c>
     </row>
     <row r="30">
@@ -6554,40 +6554,40 @@
         <v>220.0470532204302</v>
       </c>
       <c r="N30" t="n">
-        <v>272.788034777308</v>
+        <v>325.9052049637784</v>
       </c>
       <c r="O30" t="n">
-        <v>369.189094392217</v>
+        <v>422.3062645786874</v>
       </c>
       <c r="P30" t="n">
-        <v>427.7097040135281</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="Q30" t="n">
-        <v>427.7097040135281</v>
+        <v>417.9640262754114</v>
       </c>
       <c r="R30" t="n">
-        <v>427.7097040135281</v>
+        <v>336.8061845232789</v>
       </c>
       <c r="S30" t="n">
-        <v>427.7097040135281</v>
+        <v>336.8061845232789</v>
       </c>
       <c r="T30" t="n">
-        <v>427.7097040135281</v>
+        <v>228.7986835097617</v>
       </c>
       <c r="U30" t="n">
-        <v>319.7022030000109</v>
+        <v>120.7911824962445</v>
       </c>
       <c r="V30" t="n">
-        <v>211.6947019864937</v>
+        <v>12.78368148272725</v>
       </c>
       <c r="W30" t="n">
-        <v>103.6872009729765</v>
+        <v>12.78368148272725</v>
       </c>
       <c r="X30" t="n">
-        <v>103.6872009729765</v>
+        <v>12.78368148272725</v>
       </c>
       <c r="Y30" t="n">
-        <v>103.6872009729765</v>
+        <v>12.78368148272725</v>
       </c>
     </row>
     <row r="31">
@@ -6597,19 +6597,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>11.50468513636384</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="C31" t="n">
-        <v>11.50468513636384</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="D31" t="n">
-        <v>11.50468513636384</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="E31" t="n">
-        <v>11.50468513636384</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="F31" t="n">
-        <v>11.50468513636384</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="G31" t="n">
         <v>8.554194080270562</v>
@@ -6654,19 +6654,19 @@
         <v>11.50468513636384</v>
       </c>
       <c r="U31" t="n">
-        <v>11.50468513636384</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="V31" t="n">
-        <v>11.50468513636384</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="W31" t="n">
-        <v>11.50468513636384</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="X31" t="n">
-        <v>11.50468513636384</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="Y31" t="n">
-        <v>11.50468513636384</v>
+        <v>8.554194080270562</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>8.554194080270562</v>
+        <v>27.64930028062502</v>
       </c>
       <c r="C32" t="n">
-        <v>8.554194080270562</v>
+        <v>27.64930028062502</v>
       </c>
       <c r="D32" t="n">
-        <v>8.554194080270562</v>
+        <v>27.64930028062502</v>
       </c>
       <c r="E32" t="n">
-        <v>8.554194080270562</v>
+        <v>27.64930028062502</v>
       </c>
       <c r="F32" t="n">
-        <v>8.554194080270562</v>
+        <v>27.64930028062502</v>
       </c>
       <c r="G32" t="n">
-        <v>8.554194080270562</v>
+        <v>27.64930028062502</v>
       </c>
       <c r="H32" t="n">
-        <v>8.554194080270562</v>
+        <v>27.64930028062502</v>
       </c>
       <c r="I32" t="n">
-        <v>8.554194080270562</v>
+        <v>27.64930028062502</v>
       </c>
       <c r="J32" t="n">
         <v>8.554194080270562</v>
       </c>
       <c r="K32" t="n">
-        <v>29.97514549595303</v>
+        <v>29.97514549595304</v>
       </c>
       <c r="L32" t="n">
-        <v>92.52894770869248</v>
+        <v>92.52894770869227</v>
       </c>
       <c r="M32" t="n">
-        <v>193.0098070056917</v>
+        <v>193.0098070056915</v>
       </c>
       <c r="N32" t="n">
-        <v>298.8679587490399</v>
+        <v>298.8679587490398</v>
       </c>
       <c r="O32" t="n">
-        <v>386.5303538087423</v>
+        <v>386.5303538087421</v>
       </c>
       <c r="P32" t="n">
-        <v>427.7097040135281</v>
+        <v>427.7097040135279</v>
       </c>
       <c r="Q32" t="n">
-        <v>411.3394857867373</v>
+        <v>411.3394857867371</v>
       </c>
       <c r="R32" t="n">
-        <v>411.3394857867373</v>
+        <v>411.3394857867371</v>
       </c>
       <c r="S32" t="n">
-        <v>411.3394857867373</v>
+        <v>411.3394857867371</v>
       </c>
       <c r="T32" t="n">
-        <v>411.3394857867373</v>
+        <v>303.3319847732199</v>
       </c>
       <c r="U32" t="n">
-        <v>411.3394857867373</v>
+        <v>195.3244837597027</v>
       </c>
       <c r="V32" t="n">
-        <v>411.3394857867373</v>
+        <v>87.31698274618549</v>
       </c>
       <c r="W32" t="n">
-        <v>303.3319847732201</v>
+        <v>27.64930028062502</v>
       </c>
       <c r="X32" t="n">
-        <v>195.3244837597029</v>
+        <v>27.64930028062502</v>
       </c>
       <c r="Y32" t="n">
-        <v>87.3169827461857</v>
+        <v>27.64930028062502</v>
       </c>
     </row>
     <row r="33">
@@ -6755,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>116.5616950937878</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="C33" t="n">
-        <v>116.5616950937878</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="D33" t="n">
-        <v>116.5616950937878</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="E33" t="n">
-        <v>116.5616950937878</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="F33" t="n">
-        <v>116.5616950937878</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="G33" t="n">
         <v>8.554194080270562</v>
@@ -6797,34 +6797,34 @@
         <v>369.189094392217</v>
       </c>
       <c r="P33" t="n">
-        <v>427.7097040135281</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="Q33" t="n">
-        <v>427.7097040135281</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="R33" t="n">
-        <v>427.7097040135281</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="S33" t="n">
-        <v>427.7097040135281</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="T33" t="n">
-        <v>427.7097040135281</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="U33" t="n">
-        <v>427.7097040135281</v>
+        <v>332.5766971208222</v>
       </c>
       <c r="V33" t="n">
-        <v>319.7022030000109</v>
+        <v>332.5766971208222</v>
       </c>
       <c r="W33" t="n">
-        <v>211.6947019864937</v>
+        <v>224.569196107305</v>
       </c>
       <c r="X33" t="n">
         <v>116.5616950937878</v>
       </c>
       <c r="Y33" t="n">
-        <v>116.5616950937878</v>
+        <v>8.554194080270562</v>
       </c>
     </row>
     <row r="34">
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>427.7097040135281</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="C34" t="n">
-        <v>427.7097040135281</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="D34" t="n">
-        <v>427.7097040135281</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="E34" t="n">
-        <v>427.7097040135281</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="F34" t="n">
-        <v>427.7097040135281</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="G34" t="n">
-        <v>424.7592129574348</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="H34" t="n">
-        <v>424.7592129574348</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="I34" t="n">
-        <v>424.7592129574348</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="J34" t="n">
-        <v>424.7592129574348</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="K34" t="n">
-        <v>424.7592129574348</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="L34" t="n">
-        <v>424.7592129574348</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="M34" t="n">
-        <v>424.7592129574348</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="N34" t="n">
-        <v>427.7097040135281</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="O34" t="n">
-        <v>427.7097040135281</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="P34" t="n">
-        <v>427.7097040135281</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="Q34" t="n">
-        <v>427.7097040135281</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="R34" t="n">
-        <v>427.7097040135281</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="S34" t="n">
-        <v>427.7097040135281</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="T34" t="n">
-        <v>427.7097040135281</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="U34" t="n">
-        <v>427.7097040135281</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="V34" t="n">
-        <v>427.7097040135281</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="W34" t="n">
-        <v>427.7097040135281</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="X34" t="n">
-        <v>427.7097040135281</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="Y34" t="n">
-        <v>427.7097040135281</v>
+        <v>11.50468513636384</v>
       </c>
     </row>
     <row r="35">
@@ -6913,13 +6913,13 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>211.6947019864937</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="C35" t="n">
-        <v>103.6872009729765</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="D35" t="n">
-        <v>103.6872009729765</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="E35" t="n">
         <v>8.554194080270562</v>
@@ -6940,49 +6940,49 @@
         <v>8.554194080270562</v>
       </c>
       <c r="K35" t="n">
-        <v>29.97514549595303</v>
+        <v>29.97514549595314</v>
       </c>
       <c r="L35" t="n">
-        <v>92.52894770869227</v>
+        <v>92.5289477086925</v>
       </c>
       <c r="M35" t="n">
-        <v>193.0098070056915</v>
+        <v>193.0098070056917</v>
       </c>
       <c r="N35" t="n">
         <v>298.8679587490399</v>
       </c>
       <c r="O35" t="n">
-        <v>386.5303538087422</v>
+        <v>386.5303538087423</v>
       </c>
       <c r="P35" t="n">
-        <v>427.7097040135281</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="Q35" t="n">
-        <v>427.7097040135281</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="R35" t="n">
-        <v>427.7097040135281</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="S35" t="n">
-        <v>427.7097040135281</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="T35" t="n">
-        <v>319.7022030000109</v>
+        <v>332.5766971208222</v>
       </c>
       <c r="U35" t="n">
-        <v>319.7022030000109</v>
+        <v>224.569196107305</v>
       </c>
       <c r="V35" t="n">
-        <v>319.7022030000109</v>
+        <v>116.5616950937878</v>
       </c>
       <c r="W35" t="n">
-        <v>319.7022030000109</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="X35" t="n">
-        <v>319.7022030000109</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="Y35" t="n">
-        <v>319.7022030000109</v>
+        <v>8.554194080270562</v>
       </c>
     </row>
     <row r="36">
@@ -6992,16 +6992,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>103.6872009729765</v>
+        <v>332.5766971208222</v>
       </c>
       <c r="C36" t="n">
-        <v>8.554194080270562</v>
+        <v>332.5766971208222</v>
       </c>
       <c r="D36" t="n">
-        <v>8.554194080270562</v>
+        <v>224.569196107305</v>
       </c>
       <c r="E36" t="n">
-        <v>8.554194080270562</v>
+        <v>116.5616950937878</v>
       </c>
       <c r="F36" t="n">
         <v>8.554194080270562</v>
@@ -7028,40 +7028,40 @@
         <v>220.0470532204302</v>
       </c>
       <c r="N36" t="n">
-        <v>272.788034777308</v>
+        <v>325.9052049637784</v>
       </c>
       <c r="O36" t="n">
         <v>369.189094392217</v>
       </c>
       <c r="P36" t="n">
-        <v>427.7097040135281</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="Q36" t="n">
-        <v>427.7097040135281</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="R36" t="n">
-        <v>427.7097040135281</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="S36" t="n">
-        <v>427.7097040135281</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="T36" t="n">
-        <v>427.7097040135281</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="U36" t="n">
-        <v>319.7022030000109</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="V36" t="n">
-        <v>211.6947019864937</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="W36" t="n">
-        <v>103.6872009729765</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="X36" t="n">
-        <v>103.6872009729765</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="Y36" t="n">
-        <v>103.6872009729765</v>
+        <v>427.7097040135282</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>427.7097040135281</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="C37" t="n">
-        <v>427.7097040135281</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="D37" t="n">
-        <v>427.7097040135281</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="E37" t="n">
-        <v>427.7097040135281</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="F37" t="n">
-        <v>427.7097040135281</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="G37" t="n">
-        <v>424.7592129574348</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="H37" t="n">
-        <v>424.7592129574348</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="I37" t="n">
-        <v>424.7592129574348</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="J37" t="n">
-        <v>424.7592129574348</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="K37" t="n">
-        <v>424.7592129574348</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="L37" t="n">
-        <v>424.7592129574348</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="M37" t="n">
-        <v>424.7592129574348</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="N37" t="n">
-        <v>427.7097040135281</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="O37" t="n">
-        <v>427.7097040135281</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="P37" t="n">
-        <v>427.7097040135281</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="Q37" t="n">
-        <v>427.7097040135281</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="R37" t="n">
-        <v>427.7097040135281</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="S37" t="n">
-        <v>427.7097040135281</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="T37" t="n">
-        <v>427.7097040135281</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="U37" t="n">
-        <v>427.7097040135281</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="V37" t="n">
-        <v>427.7097040135281</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="W37" t="n">
-        <v>427.7097040135281</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="X37" t="n">
-        <v>427.7097040135281</v>
+        <v>11.50468513636384</v>
       </c>
       <c r="Y37" t="n">
-        <v>427.7097040135281</v>
+        <v>11.50468513636384</v>
       </c>
     </row>
     <row r="38">
@@ -7150,16 +7150,16 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>427.7097040135282</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="C38" t="n">
-        <v>332.5766971208222</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="D38" t="n">
-        <v>224.569196107305</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="E38" t="n">
-        <v>116.5616950937878</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="F38" t="n">
         <v>8.554194080270562</v>
@@ -7177,49 +7177,49 @@
         <v>8.554194080270562</v>
       </c>
       <c r="K38" t="n">
-        <v>29.97514549595304</v>
+        <v>29.97514549595314</v>
       </c>
       <c r="L38" t="n">
-        <v>92.52894770869227</v>
+        <v>92.52894770869239</v>
       </c>
       <c r="M38" t="n">
-        <v>193.0098070056915</v>
+        <v>193.0098070056916</v>
       </c>
       <c r="N38" t="n">
-        <v>298.8679587490398</v>
+        <v>298.8679587490399</v>
       </c>
       <c r="O38" t="n">
-        <v>386.5303538087421</v>
+        <v>386.5303538087423</v>
       </c>
       <c r="P38" t="n">
-        <v>427.7097040135279</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="Q38" t="n">
-        <v>427.7097040135279</v>
+        <v>427.0639567215451</v>
       </c>
       <c r="R38" t="n">
-        <v>427.7097040135279</v>
+        <v>332.5766971208222</v>
       </c>
       <c r="S38" t="n">
-        <v>427.7097040135279</v>
+        <v>224.569196107305</v>
       </c>
       <c r="T38" t="n">
-        <v>427.7097040135279</v>
+        <v>224.569196107305</v>
       </c>
       <c r="U38" t="n">
-        <v>427.7097040135279</v>
+        <v>224.569196107305</v>
       </c>
       <c r="V38" t="n">
-        <v>427.7097040135279</v>
+        <v>224.569196107305</v>
       </c>
       <c r="W38" t="n">
-        <v>427.7097040135279</v>
+        <v>224.569196107305</v>
       </c>
       <c r="X38" t="n">
-        <v>427.7097040135279</v>
+        <v>116.5616950937878</v>
       </c>
       <c r="Y38" t="n">
-        <v>427.7097040135279</v>
+        <v>116.5616950937878</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>319.702203000011</v>
+        <v>146.6545368692212</v>
       </c>
       <c r="C39" t="n">
-        <v>319.702203000011</v>
+        <v>38.64703585570396</v>
       </c>
       <c r="D39" t="n">
-        <v>319.702203000011</v>
+        <v>38.64703585570396</v>
       </c>
       <c r="E39" t="n">
-        <v>224.569196107305</v>
+        <v>38.64703585570396</v>
       </c>
       <c r="F39" t="n">
-        <v>116.5616950937878</v>
+        <v>38.64703585570396</v>
       </c>
       <c r="G39" t="n">
-        <v>8.554194080270562</v>
+        <v>38.64703585570396</v>
       </c>
       <c r="H39" t="n">
-        <v>8.554194080270562</v>
+        <v>38.64703585570396</v>
       </c>
       <c r="I39" t="n">
-        <v>8.554194080270562</v>
+        <v>38.64703585570396</v>
       </c>
       <c r="J39" t="n">
         <v>8.554194080270562</v>
@@ -7262,43 +7262,43 @@
         <v>114.188901477082</v>
       </c>
       <c r="M39" t="n">
-        <v>166.9298830339598</v>
+        <v>220.0470532204302</v>
       </c>
       <c r="N39" t="n">
-        <v>272.788034777308</v>
+        <v>325.9052049637784</v>
       </c>
       <c r="O39" t="n">
-        <v>369.189094392217</v>
+        <v>422.3062645786874</v>
       </c>
       <c r="P39" t="n">
         <v>427.7097040135282</v>
       </c>
       <c r="Q39" t="n">
-        <v>427.7097040135282</v>
+        <v>417.9640262754114</v>
       </c>
       <c r="R39" t="n">
-        <v>427.7097040135282</v>
+        <v>336.8061845232789</v>
       </c>
       <c r="S39" t="n">
-        <v>427.7097040135282</v>
+        <v>336.8061845232789</v>
       </c>
       <c r="T39" t="n">
-        <v>427.7097040135282</v>
+        <v>336.8061845232789</v>
       </c>
       <c r="U39" t="n">
-        <v>427.7097040135282</v>
+        <v>254.6620378827384</v>
       </c>
       <c r="V39" t="n">
-        <v>319.702203000011</v>
+        <v>254.6620378827384</v>
       </c>
       <c r="W39" t="n">
-        <v>319.702203000011</v>
+        <v>146.6545368692212</v>
       </c>
       <c r="X39" t="n">
-        <v>319.702203000011</v>
+        <v>146.6545368692212</v>
       </c>
       <c r="Y39" t="n">
-        <v>319.702203000011</v>
+        <v>146.6545368692212</v>
       </c>
     </row>
     <row r="40">
@@ -7371,7 +7371,7 @@
         <v>11.50468513636384</v>
       </c>
       <c r="W40" t="n">
-        <v>11.50468513636384</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="X40" t="n">
         <v>8.554194080270562</v>
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>319.702203000011</v>
+        <v>332.5766971208222</v>
       </c>
       <c r="C41" t="n">
-        <v>319.702203000011</v>
+        <v>332.5766971208222</v>
       </c>
       <c r="D41" t="n">
+        <v>332.5766971208222</v>
+      </c>
+      <c r="E41" t="n">
         <v>224.569196107305</v>
       </c>
-      <c r="E41" t="n">
+      <c r="F41" t="n">
         <v>116.5616950937878</v>
       </c>
-      <c r="F41" t="n">
-        <v>8.554194080270562</v>
-      </c>
       <c r="G41" t="n">
-        <v>8.554194080270562</v>
+        <v>116.5616950937878</v>
       </c>
       <c r="H41" t="n">
-        <v>8.554194080270562</v>
+        <v>116.5616950937878</v>
       </c>
       <c r="I41" t="n">
         <v>8.554194080270562</v>
@@ -7417,13 +7417,13 @@
         <v>29.97514549595314</v>
       </c>
       <c r="L41" t="n">
-        <v>92.52894770869239</v>
+        <v>92.5289477086925</v>
       </c>
       <c r="M41" t="n">
-        <v>193.0098070056915</v>
+        <v>193.0098070056917</v>
       </c>
       <c r="N41" t="n">
-        <v>298.8679587490398</v>
+        <v>298.8679587490399</v>
       </c>
       <c r="O41" t="n">
         <v>386.5303538087423</v>
@@ -7447,16 +7447,16 @@
         <v>427.7097040135282</v>
       </c>
       <c r="V41" t="n">
-        <v>319.702203000011</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="W41" t="n">
-        <v>319.702203000011</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="X41" t="n">
-        <v>319.702203000011</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="Y41" t="n">
-        <v>319.702203000011</v>
+        <v>427.7097040135282</v>
       </c>
     </row>
     <row r="42">
@@ -7466,28 +7466,28 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>224.569196107305</v>
+        <v>130.5368602343613</v>
       </c>
       <c r="C42" t="n">
-        <v>224.569196107305</v>
+        <v>130.5368602343613</v>
       </c>
       <c r="D42" t="n">
-        <v>116.5616950937878</v>
+        <v>130.5368602343613</v>
       </c>
       <c r="E42" t="n">
-        <v>116.5616950937878</v>
+        <v>22.52935922084404</v>
       </c>
       <c r="F42" t="n">
-        <v>8.554194080270562</v>
+        <v>22.52935922084404</v>
       </c>
       <c r="G42" t="n">
-        <v>8.554194080270562</v>
+        <v>22.52935922084404</v>
       </c>
       <c r="H42" t="n">
-        <v>8.554194080270562</v>
+        <v>22.52935922084404</v>
       </c>
       <c r="I42" t="n">
-        <v>8.554194080270562</v>
+        <v>22.52935922084404</v>
       </c>
       <c r="J42" t="n">
         <v>8.554194080270562</v>
@@ -7499,10 +7499,10 @@
         <v>114.188901477082</v>
       </c>
       <c r="M42" t="n">
-        <v>166.9298830339598</v>
+        <v>220.0470532204302</v>
       </c>
       <c r="N42" t="n">
-        <v>272.788034777308</v>
+        <v>325.9052049637784</v>
       </c>
       <c r="O42" t="n">
         <v>369.189094392217</v>
@@ -7511,31 +7511,31 @@
         <v>427.7097040135282</v>
       </c>
       <c r="Q42" t="n">
-        <v>417.9640262754114</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="R42" t="n">
-        <v>336.8061845232789</v>
+        <v>346.5518622613957</v>
       </c>
       <c r="S42" t="n">
-        <v>336.8061845232789</v>
+        <v>346.5518622613957</v>
       </c>
       <c r="T42" t="n">
-        <v>336.8061845232789</v>
+        <v>238.5443612478785</v>
       </c>
       <c r="U42" t="n">
-        <v>332.5766971208222</v>
+        <v>130.5368602343613</v>
       </c>
       <c r="V42" t="n">
-        <v>332.5766971208222</v>
+        <v>130.5368602343613</v>
       </c>
       <c r="W42" t="n">
-        <v>224.569196107305</v>
+        <v>130.5368602343613</v>
       </c>
       <c r="X42" t="n">
-        <v>224.569196107305</v>
+        <v>130.5368602343613</v>
       </c>
       <c r="Y42" t="n">
-        <v>224.569196107305</v>
+        <v>130.5368602343613</v>
       </c>
     </row>
     <row r="43">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>9.199941372253676</v>
+        <v>116.5616950937878</v>
       </c>
       <c r="C44" t="n">
-        <v>9.199941372253676</v>
+        <v>116.5616950937878</v>
       </c>
       <c r="D44" t="n">
-        <v>8.554194080270562</v>
+        <v>116.5616950937878</v>
       </c>
       <c r="E44" t="n">
         <v>8.554194080270562</v>
@@ -7651,13 +7651,13 @@
         <v>8.554194080270562</v>
       </c>
       <c r="K44" t="n">
-        <v>29.97514549595329</v>
+        <v>29.97514549595326</v>
       </c>
       <c r="L44" t="n">
-        <v>92.52894770869251</v>
+        <v>92.5289477086925</v>
       </c>
       <c r="M44" t="n">
-        <v>193.0098070056918</v>
+        <v>193.0098070056916</v>
       </c>
       <c r="N44" t="n">
         <v>298.86795874904</v>
@@ -7669,31 +7669,31 @@
         <v>427.7097040135282</v>
       </c>
       <c r="Q44" t="n">
-        <v>427.7097040135282</v>
+        <v>427.0639567215451</v>
       </c>
       <c r="R44" t="n">
-        <v>333.2224444128053</v>
+        <v>332.5766971208222</v>
       </c>
       <c r="S44" t="n">
-        <v>333.2224444128053</v>
+        <v>224.569196107305</v>
       </c>
       <c r="T44" t="n">
-        <v>333.2224444128053</v>
+        <v>116.5616950937878</v>
       </c>
       <c r="U44" t="n">
-        <v>225.2149433992881</v>
+        <v>116.5616950937878</v>
       </c>
       <c r="V44" t="n">
-        <v>225.2149433992881</v>
+        <v>116.5616950937878</v>
       </c>
       <c r="W44" t="n">
-        <v>117.2074423857709</v>
+        <v>116.5616950937878</v>
       </c>
       <c r="X44" t="n">
-        <v>9.199941372253676</v>
+        <v>116.5616950937878</v>
       </c>
       <c r="Y44" t="n">
-        <v>9.199941372253676</v>
+        <v>116.5616950937878</v>
       </c>
     </row>
     <row r="45">
@@ -7703,22 +7703,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>238.5443612478785</v>
+        <v>103.6872009729765</v>
       </c>
       <c r="C45" t="n">
-        <v>238.5443612478785</v>
+        <v>103.6872009729765</v>
       </c>
       <c r="D45" t="n">
-        <v>238.5443612478785</v>
+        <v>103.6872009729765</v>
       </c>
       <c r="E45" t="n">
-        <v>130.5368602343613</v>
+        <v>103.6872009729765</v>
       </c>
       <c r="F45" t="n">
-        <v>22.52935922084404</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="G45" t="n">
-        <v>22.52935922084404</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="H45" t="n">
         <v>8.554194080270562</v>
@@ -7730,16 +7730,16 @@
         <v>8.554194080270562</v>
       </c>
       <c r="K45" t="n">
-        <v>8.554194080270562</v>
+        <v>34.34521432379858</v>
       </c>
       <c r="L45" t="n">
-        <v>61.07173129061159</v>
+        <v>114.188901477082</v>
       </c>
       <c r="M45" t="n">
-        <v>166.9298830339598</v>
+        <v>220.0470532204302</v>
       </c>
       <c r="N45" t="n">
-        <v>272.788034777308</v>
+        <v>325.9052049637784</v>
       </c>
       <c r="O45" t="n">
         <v>369.189094392217</v>
@@ -7751,28 +7751,28 @@
         <v>427.7097040135282</v>
       </c>
       <c r="R45" t="n">
-        <v>346.5518622613957</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="S45" t="n">
-        <v>346.5518622613957</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="T45" t="n">
-        <v>346.5518622613957</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="U45" t="n">
-        <v>238.5443612478785</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="V45" t="n">
-        <v>238.5443612478785</v>
+        <v>427.7097040135282</v>
       </c>
       <c r="W45" t="n">
-        <v>238.5443612478785</v>
+        <v>319.702203000011</v>
       </c>
       <c r="X45" t="n">
-        <v>238.5443612478785</v>
+        <v>211.6947019864938</v>
       </c>
       <c r="Y45" t="n">
-        <v>238.5443612478785</v>
+        <v>103.6872009729765</v>
       </c>
     </row>
     <row r="46">
@@ -7833,16 +7833,16 @@
         <v>11.50468513636384</v>
       </c>
       <c r="S46" t="n">
-        <v>11.50468513636384</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="T46" t="n">
-        <v>11.50468513636384</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="U46" t="n">
-        <v>11.50468513636384</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="V46" t="n">
-        <v>11.50468513636384</v>
+        <v>8.554194080270562</v>
       </c>
       <c r="W46" t="n">
         <v>8.554194080270562</v>
@@ -22810,7 +22810,7 @@
         <v>70.12451876312399</v>
       </c>
       <c r="K5" t="n">
-        <v>55.12872290169071</v>
+        <v>55.12872290169068</v>
       </c>
       <c r="L5" t="n">
         <v>32.04941132065568</v>
@@ -23269,19 +23269,19 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F11" t="n">
-        <v>332.016341795113</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G11" t="n">
         <v>306.0702799235769</v>
       </c>
       <c r="H11" t="n">
-        <v>212.1978670172556</v>
+        <v>319.1252930206376</v>
       </c>
       <c r="I11" t="n">
-        <v>26.70259638263278</v>
+        <v>26.70259638263276</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>18.90415513835094</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -23305,7 +23305,7 @@
         <v>16.20651604452294</v>
       </c>
       <c r="R11" t="n">
-        <v>93.54238700471562</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>163.5472088943176</v>
@@ -23314,10 +23314,10 @@
         <v>214.835839336413</v>
       </c>
       <c r="U11" t="n">
-        <v>251.3291988183946</v>
+        <v>144.4017728150127</v>
       </c>
       <c r="V11" t="n">
-        <v>328.5332215225193</v>
+        <v>327.8939317034561</v>
       </c>
       <c r="W11" t="n">
         <v>350.5301170005546</v>
@@ -23342,7 +23342,7 @@
         <v>171.025583927401</v>
       </c>
       <c r="D12" t="n">
-        <v>146.1124235746456</v>
+        <v>39.18499757126359</v>
       </c>
       <c r="E12" t="n">
         <v>156.0334337071738</v>
@@ -23381,10 +23381,10 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>9.648220960735628</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>80.34626333461114</v>
       </c>
       <c r="S12" t="n">
         <v>43.57823589723809</v>
@@ -23393,10 +23393,10 @@
         <v>87.45014253000657</v>
       </c>
       <c r="U12" t="n">
-        <v>117.6643816942619</v>
+        <v>130.410130873865</v>
       </c>
       <c r="V12" t="n">
-        <v>227.7215385112231</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W12" t="n">
         <v>249.98934675</v>
@@ -23448,7 +23448,7 @@
         <v>7.666252278545471</v>
       </c>
       <c r="M13" t="n">
-        <v>1.953086904587416</v>
+        <v>4.874073050119733</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>135.9358563101673</v>
       </c>
       <c r="S13" t="n">
-        <v>207.8402631004476</v>
+        <v>204.9192769549153</v>
       </c>
       <c r="T13" t="n">
         <v>224.7732288424945</v>
@@ -23500,25 +23500,25 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D14" t="n">
-        <v>356.6047327545984</v>
+        <v>249.6773067512164</v>
       </c>
       <c r="E14" t="n">
-        <v>383.1180357552875</v>
+        <v>276.1906097519055</v>
       </c>
       <c r="F14" t="n">
-        <v>332.0163417951129</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G14" t="n">
-        <v>306.0702799235768</v>
+        <v>412.9977059269589</v>
       </c>
       <c r="H14" t="n">
-        <v>212.1978670172556</v>
+        <v>319.1252930206376</v>
       </c>
       <c r="I14" t="n">
-        <v>26.70259638263269</v>
+        <v>39.44834556223593</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>18.90415513835094</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -23551,7 +23551,7 @@
         <v>214.835839336413</v>
       </c>
       <c r="U14" t="n">
-        <v>251.3291988183946</v>
+        <v>144.4017728150127</v>
       </c>
       <c r="V14" t="n">
         <v>328.5332215225193</v>
@@ -23585,10 +23585,10 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F15" t="n">
-        <v>143.5062320835493</v>
+        <v>36.57880608016731</v>
       </c>
       <c r="G15" t="n">
-        <v>135.0295957877706</v>
+        <v>121.1941822986029</v>
       </c>
       <c r="H15" t="n">
         <v>100.8662920711142</v>
@@ -23618,25 +23618,25 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>9.648220960735628</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>43.57823589723803</v>
+        <v>43.57823589723807</v>
       </c>
       <c r="T15" t="n">
-        <v>87.4501425300065</v>
+        <v>194.3775685333885</v>
       </c>
       <c r="U15" t="n">
-        <v>117.6643816942618</v>
+        <v>224.5918076976439</v>
       </c>
       <c r="V15" t="n">
-        <v>227.721538511223</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W15" t="n">
-        <v>249.98934675</v>
+        <v>143.0619207466181</v>
       </c>
       <c r="X15" t="n">
         <v>204.4616296084783</v>
@@ -23685,7 +23685,7 @@
         <v>7.666252278545471</v>
       </c>
       <c r="M16" t="n">
-        <v>1.953086904587416</v>
+        <v>4.874073050119733</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -23706,7 +23706,7 @@
         <v>207.8402631004476</v>
       </c>
       <c r="T16" t="n">
-        <v>224.7732288424945</v>
+        <v>221.8522426969622</v>
       </c>
       <c r="U16" t="n">
         <v>286.0068333210768</v>
@@ -23734,7 +23734,7 @@
         <v>383.716409991395</v>
       </c>
       <c r="C17" t="n">
-        <v>366.9850956789426</v>
+        <v>272.8034188551637</v>
       </c>
       <c r="D17" t="n">
         <v>356.6047327545984</v>
@@ -23743,19 +23743,19 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F17" t="n">
-        <v>332.0163417951129</v>
+        <v>300.3664374771588</v>
       </c>
       <c r="G17" t="n">
-        <v>306.0702799235768</v>
+        <v>412.9977059269589</v>
       </c>
       <c r="H17" t="n">
-        <v>212.1978670172556</v>
+        <v>319.1252930206376</v>
       </c>
       <c r="I17" t="n">
-        <v>26.70259638263269</v>
+        <v>133.6300223860147</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>18.90415513835092</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23776,10 +23776,10 @@
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>16.20651604452289</v>
+        <v>16.20651604452291</v>
       </c>
       <c r="R17" t="n">
-        <v>93.54238700471559</v>
+        <v>93.54238700471561</v>
       </c>
       <c r="S17" t="n">
         <v>163.5472088943176</v>
@@ -23788,13 +23788,13 @@
         <v>214.835839336413</v>
       </c>
       <c r="U17" t="n">
-        <v>251.3291988183946</v>
+        <v>144.4017728150126</v>
       </c>
       <c r="V17" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W17" t="n">
-        <v>350.5301170005546</v>
+        <v>243.6026909971725</v>
       </c>
       <c r="X17" t="n">
         <v>370.8615991311694</v>
@@ -23822,16 +23822,16 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F18" t="n">
-        <v>143.5062320835493</v>
+        <v>36.57880608016725</v>
       </c>
       <c r="G18" t="n">
-        <v>135.0295957877706</v>
+        <v>130.8424032593385</v>
       </c>
       <c r="H18" t="n">
         <v>100.8662920711142</v>
       </c>
       <c r="I18" t="n">
-        <v>62.82435043165499</v>
+        <v>62.824350431655</v>
       </c>
       <c r="J18" t="n">
         <v>29.79191335767906</v>
@@ -23861,19 +23861,19 @@
         <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>43.57823589723802</v>
+        <v>150.5056619006201</v>
       </c>
       <c r="T18" t="n">
         <v>87.4501425300065</v>
       </c>
       <c r="U18" t="n">
-        <v>117.6643816942618</v>
+        <v>224.5918076976439</v>
       </c>
       <c r="V18" t="n">
-        <v>227.721538511223</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W18" t="n">
-        <v>249.98934675</v>
+        <v>143.061920746618</v>
       </c>
       <c r="X18" t="n">
         <v>204.4616296084783</v>
@@ -23904,7 +23904,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G19" t="n">
-        <v>167.056575980339</v>
+        <v>164.1355898348067</v>
       </c>
       <c r="H19" t="n">
         <v>154.2278296009703</v>
@@ -23916,10 +23916,10 @@
         <v>64.9265203547404</v>
       </c>
       <c r="K19" t="n">
-        <v>29.0069676431059</v>
+        <v>29.00696764310591</v>
       </c>
       <c r="L19" t="n">
-        <v>7.666252278545443</v>
+        <v>7.666252278545457</v>
       </c>
       <c r="M19" t="n">
         <v>4.874073050119705</v>
@@ -23928,13 +23928,13 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>14.3315448176601</v>
+        <v>17.25253096319248</v>
       </c>
       <c r="P19" t="n">
-        <v>33.53567409585307</v>
+        <v>33.53567409585308</v>
       </c>
       <c r="Q19" t="n">
-        <v>77.96390131304983</v>
+        <v>77.96390131304985</v>
       </c>
       <c r="R19" t="n">
         <v>135.9358563101673</v>
@@ -23977,13 +23977,13 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E20" t="n">
-        <v>383.1180357552875</v>
+        <v>324.0470301143824</v>
       </c>
       <c r="F20" t="n">
-        <v>407.2938634805408</v>
+        <v>300.3664374771588</v>
       </c>
       <c r="G20" t="n">
-        <v>412.9977059269589</v>
+        <v>306.0702799235768</v>
       </c>
       <c r="H20" t="n">
         <v>319.1252930206376</v>
@@ -23992,7 +23992,7 @@
         <v>133.6300223860147</v>
       </c>
       <c r="J20" t="n">
-        <v>18.90415513835089</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>93.54238700471558</v>
+        <v>93.54238700471561</v>
       </c>
       <c r="S20" t="n">
         <v>163.5472088943176</v>
       </c>
       <c r="T20" t="n">
-        <v>107.9084133330309</v>
+        <v>107.908413333031</v>
       </c>
       <c r="U20" t="n">
         <v>251.3291988183946</v>
       </c>
       <c r="V20" t="n">
-        <v>221.6057955191372</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W20" t="n">
-        <v>243.6026909971725</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X20" t="n">
         <v>370.8615991311694</v>
       </c>
       <c r="Y20" t="n">
-        <v>308.7119109719797</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="21">
@@ -24059,19 +24059,19 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F21" t="n">
-        <v>79.50660909038642</v>
+        <v>36.57880608016725</v>
       </c>
       <c r="G21" t="n">
-        <v>28.10216978438855</v>
+        <v>28.10216978438859</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>100.8662920711142</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>62.824350431655</v>
       </c>
       <c r="J21" t="n">
-        <v>29.79191335767905</v>
+        <v>29.79191335767906</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -24092,16 +24092,16 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>9.648220960735586</v>
+        <v>9.648220960735614</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>80.34626333461114</v>
       </c>
       <c r="S21" t="n">
-        <v>150.5056619006201</v>
+        <v>43.57823589723802</v>
       </c>
       <c r="T21" t="n">
-        <v>194.3775685333885</v>
+        <v>100.1958917096096</v>
       </c>
       <c r="U21" t="n">
         <v>224.5918076976439</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>177.1627053451514</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C22" t="n">
         <v>167.3365529312023</v>
@@ -24141,37 +24141,37 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G22" t="n">
-        <v>167.056575980339</v>
+        <v>164.1355898348067</v>
       </c>
       <c r="H22" t="n">
         <v>154.2278296009703</v>
       </c>
       <c r="I22" t="n">
-        <v>128.7075755443493</v>
+        <v>128.7075755443494</v>
       </c>
       <c r="J22" t="n">
         <v>64.9265203547404</v>
       </c>
       <c r="K22" t="n">
-        <v>29.00696764310588</v>
+        <v>29.00696764310591</v>
       </c>
       <c r="L22" t="n">
-        <v>7.666252278545429</v>
+        <v>7.666252278545457</v>
       </c>
       <c r="M22" t="n">
-        <v>4.874073050119677</v>
+        <v>4.874073050119705</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>17.25253096319246</v>
+        <v>17.25253096319248</v>
       </c>
       <c r="P22" t="n">
-        <v>33.53567409585305</v>
+        <v>33.53567409585308</v>
       </c>
       <c r="Q22" t="n">
-        <v>77.96390131304983</v>
+        <v>77.96390131304985</v>
       </c>
       <c r="R22" t="n">
         <v>135.9358563101673</v>
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>276.788983988013</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C23" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D23" t="n">
-        <v>249.6773067512163</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E23" t="n">
-        <v>276.1906097519054</v>
+        <v>288.9363589315086</v>
       </c>
       <c r="F23" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G23" t="n">
-        <v>318.81602910318</v>
+        <v>306.0702799235768</v>
       </c>
       <c r="H23" t="n">
-        <v>319.1252930206376</v>
+        <v>212.1978670172556</v>
       </c>
       <c r="I23" t="n">
         <v>133.6300223860147</v>
@@ -24262,7 +24262,7 @@
         <v>214.835839336413</v>
       </c>
       <c r="U23" t="n">
-        <v>251.3291988183946</v>
+        <v>144.4017728150126</v>
       </c>
       <c r="V23" t="n">
         <v>328.5332215225193</v>
@@ -24284,7 +24284,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>58.4446996069628</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C24" t="n">
         <v>171.025583927401</v>
@@ -24341,16 +24341,16 @@
         <v>194.3775685333885</v>
       </c>
       <c r="U24" t="n">
-        <v>117.6643816942618</v>
+        <v>130.410130873865</v>
       </c>
       <c r="V24" t="n">
         <v>124.9813050362731</v>
       </c>
       <c r="W24" t="n">
-        <v>155.8076699262211</v>
+        <v>143.061920746618</v>
       </c>
       <c r="X24" t="n">
-        <v>204.4616296084783</v>
+        <v>97.53420360509622</v>
       </c>
       <c r="Y24" t="n">
         <v>203.671151418586</v>
@@ -24381,7 +24381,7 @@
         <v>167.056575980339</v>
       </c>
       <c r="H25" t="n">
-        <v>151.306843455438</v>
+        <v>154.2278296009703</v>
       </c>
       <c r="I25" t="n">
         <v>128.7075755443494</v>
@@ -24426,7 +24426,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W25" t="n">
-        <v>286.0925768874155</v>
+        <v>283.1715907418832</v>
       </c>
       <c r="X25" t="n">
         <v>226.1403599323093</v>
@@ -24442,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>276.788983988013</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C26" t="n">
-        <v>366.9850956789426</v>
+        <v>260.0576696755606</v>
       </c>
       <c r="D26" t="n">
-        <v>356.6047327545984</v>
+        <v>249.6773067512163</v>
       </c>
       <c r="E26" t="n">
-        <v>383.1180357552875</v>
+        <v>276.1906097519054</v>
       </c>
       <c r="F26" t="n">
         <v>407.2938634805408</v>
@@ -24502,16 +24502,16 @@
         <v>251.3291988183946</v>
       </c>
       <c r="V26" t="n">
-        <v>221.6057955191373</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W26" t="n">
         <v>350.5301170005546</v>
       </c>
       <c r="X26" t="n">
-        <v>263.9341731277873</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y26" t="n">
-        <v>292.5053949274571</v>
+        <v>292.5053949274572</v>
       </c>
     </row>
     <row r="27">
@@ -24533,10 +24533,10 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F27" t="n">
-        <v>143.5062320835493</v>
+        <v>36.57880608016725</v>
       </c>
       <c r="G27" t="n">
-        <v>130.8424032593385</v>
+        <v>135.0295957877706</v>
       </c>
       <c r="H27" t="n">
         <v>100.8662920711142</v>
@@ -24569,25 +24569,25 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>80.34626333461114</v>
       </c>
       <c r="S27" t="n">
-        <v>150.5056619006201</v>
+        <v>43.57823589723802</v>
       </c>
       <c r="T27" t="n">
-        <v>194.3775685333885</v>
+        <v>87.4501425300065</v>
       </c>
       <c r="U27" t="n">
-        <v>117.6643816942618</v>
+        <v>224.5918076976439</v>
       </c>
       <c r="V27" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W27" t="n">
-        <v>143.061920746618</v>
+        <v>165.4558908869568</v>
       </c>
       <c r="X27" t="n">
-        <v>97.53420360509624</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y27" t="n">
         <v>203.671151418586</v>
@@ -24691,10 +24691,10 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F29" t="n">
-        <v>300.3664374771588</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G29" t="n">
-        <v>306.0702799235768</v>
+        <v>412.9977059269589</v>
       </c>
       <c r="H29" t="n">
         <v>319.1252930206376</v>
@@ -24724,22 +24724,22 @@
         <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>16.20651604452291</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>93.54238700471561</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>163.5472088943176</v>
+        <v>72.18700911639547</v>
       </c>
       <c r="T29" t="n">
-        <v>214.835839336413</v>
+        <v>107.908413333031</v>
       </c>
       <c r="U29" t="n">
         <v>144.4017728150126</v>
       </c>
       <c r="V29" t="n">
-        <v>234.3515446987406</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W29" t="n">
         <v>350.5301170005546</v>
@@ -24758,7 +24758,7 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>71.19044878656592</v>
+        <v>161.1849330819127</v>
       </c>
       <c r="C30" t="n">
         <v>171.025583927401</v>
@@ -24803,16 +24803,16 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>9.648220960735614</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>80.34626333461114</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>150.5056619006201</v>
       </c>
       <c r="T30" t="n">
-        <v>194.3775685333885</v>
+        <v>87.4501425300065</v>
       </c>
       <c r="U30" t="n">
         <v>117.6643816942618</v>
@@ -24821,7 +24821,7 @@
         <v>124.9813050362731</v>
       </c>
       <c r="W30" t="n">
-        <v>143.061920746618</v>
+        <v>249.98934675</v>
       </c>
       <c r="X30" t="n">
         <v>204.4616296084783</v>
@@ -24852,7 +24852,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G31" t="n">
-        <v>164.1355898348067</v>
+        <v>167.056575980339</v>
       </c>
       <c r="H31" t="n">
         <v>154.2278296009703</v>
@@ -24894,7 +24894,7 @@
         <v>224.7732288424945</v>
       </c>
       <c r="U31" t="n">
-        <v>286.0068333210768</v>
+        <v>283.0858471755444</v>
       </c>
       <c r="V31" t="n">
         <v>252.9363510669392</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>305.7412492121391</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C32" t="n">
         <v>366.9850956789426</v>
@@ -24940,7 +24940,7 @@
         <v>133.6300223860147</v>
       </c>
       <c r="J32" t="n">
-        <v>18.90415513835092</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24970,22 +24970,22 @@
         <v>163.5472088943176</v>
       </c>
       <c r="T32" t="n">
-        <v>214.835839336413</v>
+        <v>107.908413333031</v>
       </c>
       <c r="U32" t="n">
-        <v>251.3291988183946</v>
+        <v>144.4017728150126</v>
       </c>
       <c r="V32" t="n">
-        <v>328.5332215225193</v>
+        <v>221.6057955191373</v>
       </c>
       <c r="W32" t="n">
-        <v>243.6026909971725</v>
+        <v>291.4591113596497</v>
       </c>
       <c r="X32" t="n">
-        <v>263.9341731277873</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y32" t="n">
-        <v>279.7596457478538</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="33">
@@ -25010,7 +25010,7 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G33" t="n">
-        <v>28.10216978438862</v>
+        <v>135.0295957877706</v>
       </c>
       <c r="H33" t="n">
         <v>100.8662920711142</v>
@@ -25052,19 +25052,19 @@
         <v>194.3775685333885</v>
       </c>
       <c r="U33" t="n">
-        <v>224.5918076976439</v>
+        <v>130.410130873865</v>
       </c>
       <c r="V33" t="n">
-        <v>124.9813050362731</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W33" t="n">
         <v>143.061920746618</v>
       </c>
       <c r="X33" t="n">
-        <v>110.2799527846994</v>
+        <v>97.53420360509622</v>
       </c>
       <c r="Y33" t="n">
-        <v>203.671151418586</v>
+        <v>96.74372541520398</v>
       </c>
     </row>
     <row r="34">
@@ -25153,16 +25153,16 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>276.788983988013</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C35" t="n">
-        <v>260.0576696755606</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D35" t="n">
         <v>356.6047327545984</v>
       </c>
       <c r="E35" t="n">
-        <v>288.9363589315086</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F35" t="n">
         <v>407.2938634805408</v>
@@ -25207,16 +25207,16 @@
         <v>163.5472088943176</v>
       </c>
       <c r="T35" t="n">
-        <v>107.908413333031</v>
+        <v>120.6541625126342</v>
       </c>
       <c r="U35" t="n">
-        <v>251.3291988183946</v>
+        <v>144.4017728150126</v>
       </c>
       <c r="V35" t="n">
-        <v>328.5332215225193</v>
+        <v>221.6057955191373</v>
       </c>
       <c r="W35" t="n">
-        <v>350.5301170005546</v>
+        <v>243.6026909971725</v>
       </c>
       <c r="X35" t="n">
         <v>370.8615991311694</v>
@@ -25232,19 +25232,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>165.3721256103448</v>
+        <v>71.19044878656598</v>
       </c>
       <c r="C36" t="n">
-        <v>76.84390710362209</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D36" t="n">
-        <v>146.1124235746456</v>
+        <v>39.18499757126352</v>
       </c>
       <c r="E36" t="n">
-        <v>156.0334337071738</v>
+        <v>49.10600770379179</v>
       </c>
       <c r="F36" t="n">
-        <v>143.5062320835493</v>
+        <v>36.57880608016725</v>
       </c>
       <c r="G36" t="n">
         <v>135.0295957877706</v>
@@ -25289,13 +25289,13 @@
         <v>194.3775685333885</v>
       </c>
       <c r="U36" t="n">
-        <v>117.6643816942618</v>
+        <v>224.5918076976439</v>
       </c>
       <c r="V36" t="n">
-        <v>124.9813050362731</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W36" t="n">
-        <v>143.061920746618</v>
+        <v>249.98934675</v>
       </c>
       <c r="X36" t="n">
         <v>204.4616296084783</v>
@@ -25323,10 +25323,10 @@
         <v>146.9746241731992</v>
       </c>
       <c r="F37" t="n">
-        <v>146.1590214098045</v>
+        <v>143.2380352642722</v>
       </c>
       <c r="G37" t="n">
-        <v>164.1355898348067</v>
+        <v>167.056575980339</v>
       </c>
       <c r="H37" t="n">
         <v>154.2278296009703</v>
@@ -25390,19 +25390,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>383.716409991395</v>
+        <v>276.788983988013</v>
       </c>
       <c r="C38" t="n">
-        <v>272.8034188551638</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D38" t="n">
-        <v>249.6773067512163</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E38" t="n">
-        <v>276.1906097519054</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F38" t="n">
-        <v>300.3664374771588</v>
+        <v>407.2938634805408</v>
       </c>
       <c r="G38" t="n">
         <v>412.9977059269589</v>
@@ -25435,13 +25435,13 @@
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>16.20651604452291</v>
+        <v>15.56722622545967</v>
       </c>
       <c r="R38" t="n">
-        <v>93.54238700471561</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>163.5472088943176</v>
+        <v>56.6197828909356</v>
       </c>
       <c r="T38" t="n">
         <v>214.835839336413</v>
@@ -25456,7 +25456,7 @@
         <v>350.5301170005546</v>
       </c>
       <c r="X38" t="n">
-        <v>370.8615991311694</v>
+        <v>263.9341731277873</v>
       </c>
       <c r="Y38" t="n">
         <v>386.6870717512358</v>
@@ -25472,19 +25472,19 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C39" t="n">
-        <v>171.025583927401</v>
+        <v>64.09815792401895</v>
       </c>
       <c r="D39" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E39" t="n">
-        <v>61.85175688339493</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F39" t="n">
-        <v>36.57880608016725</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G39" t="n">
-        <v>28.10216978438859</v>
+        <v>135.0295957877706</v>
       </c>
       <c r="H39" t="n">
         <v>100.8662920711142</v>
@@ -25493,7 +25493,7 @@
         <v>62.824350431655</v>
       </c>
       <c r="J39" t="n">
-        <v>29.79191335767906</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -25514,10 +25514,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>9.648220960735614</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>80.34626333461114</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>150.5056619006201</v>
@@ -25526,13 +25526,13 @@
         <v>194.3775685333885</v>
       </c>
       <c r="U39" t="n">
-        <v>224.5918076976439</v>
+        <v>143.2691025235088</v>
       </c>
       <c r="V39" t="n">
-        <v>124.9813050362731</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W39" t="n">
-        <v>249.98934675</v>
+        <v>143.061920746618</v>
       </c>
       <c r="X39" t="n">
         <v>204.4616296084783</v>
@@ -25611,10 +25611,10 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W40" t="n">
-        <v>286.0925768874155</v>
+        <v>283.1715907418832</v>
       </c>
       <c r="X40" t="n">
-        <v>223.2193737867769</v>
+        <v>226.1403599323093</v>
       </c>
       <c r="Y40" t="n">
         <v>218.7486738677682</v>
@@ -25627,13 +25627,13 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>383.716409991395</v>
+        <v>289.5347331676162</v>
       </c>
       <c r="C41" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D41" t="n">
-        <v>262.4230559308195</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E41" t="n">
         <v>276.1906097519054</v>
@@ -25648,7 +25648,7 @@
         <v>319.1252930206376</v>
       </c>
       <c r="I41" t="n">
-        <v>133.6300223860147</v>
+        <v>26.70259638263269</v>
       </c>
       <c r="J41" t="n">
         <v>18.90415513835092</v>
@@ -25687,7 +25687,7 @@
         <v>251.3291988183946</v>
       </c>
       <c r="V41" t="n">
-        <v>221.6057955191373</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W41" t="n">
         <v>350.5301170005546</v>
@@ -25712,13 +25712,13 @@
         <v>171.025583927401</v>
       </c>
       <c r="D42" t="n">
-        <v>39.18499757126352</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E42" t="n">
-        <v>156.0334337071738</v>
+        <v>49.10600770379179</v>
       </c>
       <c r="F42" t="n">
-        <v>36.57880608016725</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G42" t="n">
         <v>135.0295957877706</v>
@@ -25730,7 +25730,7 @@
         <v>62.824350431655</v>
       </c>
       <c r="J42" t="n">
-        <v>29.79191335767906</v>
+        <v>15.95649986851132</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -25751,7 +25751,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>9.648220960735614</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -25760,16 +25760,16 @@
         <v>150.5056619006201</v>
       </c>
       <c r="T42" t="n">
-        <v>194.3775685333885</v>
+        <v>87.4501425300065</v>
       </c>
       <c r="U42" t="n">
-        <v>220.4046151692118</v>
+        <v>117.6643816942618</v>
       </c>
       <c r="V42" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W42" t="n">
-        <v>143.061920746618</v>
+        <v>249.98934675</v>
       </c>
       <c r="X42" t="n">
         <v>204.4616296084783</v>
@@ -25870,10 +25870,10 @@
         <v>366.9850956789426</v>
       </c>
       <c r="D44" t="n">
-        <v>355.9654429355351</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E44" t="n">
-        <v>383.1180357552875</v>
+        <v>276.1906097519054</v>
       </c>
       <c r="F44" t="n">
         <v>407.2938634805408</v>
@@ -25909,28 +25909,28 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>16.20651604452291</v>
+        <v>15.56722622545967</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>163.5472088943176</v>
+        <v>56.6197828909356</v>
       </c>
       <c r="T44" t="n">
-        <v>214.835839336413</v>
+        <v>107.908413333031</v>
       </c>
       <c r="U44" t="n">
-        <v>144.4017728150126</v>
+        <v>251.3291988183946</v>
       </c>
       <c r="V44" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W44" t="n">
-        <v>243.6026909971725</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X44" t="n">
-        <v>263.9341731277873</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y44" t="n">
         <v>386.6870717512358</v>
@@ -25952,16 +25952,16 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E45" t="n">
-        <v>49.10600770379179</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F45" t="n">
-        <v>36.57880608016725</v>
+        <v>49.32455525977038</v>
       </c>
       <c r="G45" t="n">
         <v>135.0295957877706</v>
       </c>
       <c r="H45" t="n">
-        <v>87.03087858194647</v>
+        <v>100.8662920711142</v>
       </c>
       <c r="I45" t="n">
         <v>62.824350431655</v>
@@ -25991,7 +25991,7 @@
         <v>9.648220960735614</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>80.34626333461114</v>
       </c>
       <c r="S45" t="n">
         <v>150.5056619006201</v>
@@ -26000,19 +26000,19 @@
         <v>194.3775685333885</v>
       </c>
       <c r="U45" t="n">
-        <v>117.6643816942618</v>
+        <v>224.5918076976439</v>
       </c>
       <c r="V45" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W45" t="n">
-        <v>249.98934675</v>
+        <v>143.061920746618</v>
       </c>
       <c r="X45" t="n">
-        <v>204.4616296084783</v>
+        <v>97.53420360509622</v>
       </c>
       <c r="Y45" t="n">
-        <v>203.671151418586</v>
+        <v>96.74372541520398</v>
       </c>
     </row>
     <row r="46">
@@ -26073,7 +26073,7 @@
         <v>135.9358563101673</v>
       </c>
       <c r="S46" t="n">
-        <v>207.8402631004476</v>
+        <v>204.9192769549153</v>
       </c>
       <c r="T46" t="n">
         <v>224.7732288424945</v>
@@ -26085,7 +26085,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W46" t="n">
-        <v>283.1715907418832</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X46" t="n">
         <v>226.1403599323093</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>353962.8701677263</v>
+        <v>353962.8701677264</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>353962.8701677264</v>
+        <v>353962.8701677263</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>353962.8701677265</v>
+        <v>353962.8701677264</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>353962.8701677264</v>
+        <v>353962.8701677265</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>353962.8701677263</v>
+        <v>353962.8701677264</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>353962.8701677264</v>
+        <v>353962.8701677265</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>353962.8701677264</v>
+        <v>353962.8701677265</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>353962.8701677265</v>
+        <v>353962.8701677264</v>
       </c>
     </row>
     <row r="16">
@@ -26325,7 +26325,7 @@
         <v>131868.5202585647</v>
       </c>
       <c r="F2" t="n">
-        <v>131868.5202585646</v>
+        <v>131868.5202585647</v>
       </c>
       <c r="G2" t="n">
         <v>131868.5202585647</v>
@@ -26337,13 +26337,13 @@
         <v>131868.5202585647</v>
       </c>
       <c r="J2" t="n">
-        <v>131868.5202585647</v>
+        <v>131868.5202585646</v>
       </c>
       <c r="K2" t="n">
         <v>131868.5202585646</v>
       </c>
       <c r="L2" t="n">
-        <v>131868.5202585647</v>
+        <v>131868.5202585646</v>
       </c>
       <c r="M2" t="n">
         <v>131868.5202585647</v>
@@ -26355,7 +26355,7 @@
         <v>131868.5202585647</v>
       </c>
       <c r="P2" t="n">
-        <v>131868.5202585646</v>
+        <v>131868.5202585647</v>
       </c>
     </row>
     <row r="3">
@@ -26377,7 +26377,7 @@
         <v>152531.3135371142</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3.046296085568232e-11</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>26646.74226974683</v>
+        <v>26646.74226974679</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,28 +26429,28 @@
         <v>77.58755151091455</v>
       </c>
       <c r="F4" t="n">
-        <v>77.58755151091458</v>
+        <v>77.58755151091455</v>
       </c>
       <c r="G4" t="n">
-        <v>77.58755151091464</v>
+        <v>77.58755151091461</v>
       </c>
       <c r="H4" t="n">
-        <v>77.58755151091468</v>
+        <v>77.58755151091461</v>
       </c>
       <c r="I4" t="n">
-        <v>77.58755151091459</v>
+        <v>77.58755151091461</v>
       </c>
       <c r="J4" t="n">
-        <v>77.58755151091459</v>
+        <v>77.58755151091461</v>
       </c>
       <c r="K4" t="n">
-        <v>77.58755151091459</v>
+        <v>77.58755151091461</v>
       </c>
       <c r="L4" t="n">
-        <v>77.58755151091459</v>
+        <v>77.58755151091461</v>
       </c>
       <c r="M4" t="n">
-        <v>77.58755151091459</v>
+        <v>77.58755151091461</v>
       </c>
       <c r="N4" t="n">
         <v>77.58755151091461</v>
@@ -26459,7 +26459,7 @@
         <v>77.58755151091461</v>
       </c>
       <c r="P4" t="n">
-        <v>77.58755151091464</v>
+        <v>77.58755151091461</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-252599.1896411635</v>
+        <v>-268299.5171153236</v>
       </c>
       <c r="C6" t="n">
-        <v>47880.09708387705</v>
+        <v>32179.76960971695</v>
       </c>
       <c r="D6" t="n">
-        <v>47880.09708387705</v>
+        <v>32179.76960971695</v>
       </c>
       <c r="E6" t="n">
-        <v>-37311.93760927388</v>
+        <v>-50719.47438998597</v>
       </c>
       <c r="F6" t="n">
-        <v>115219.3759278403</v>
+        <v>101811.8391471281</v>
       </c>
       <c r="G6" t="n">
-        <v>115219.3759278403</v>
+        <v>101811.8391471282</v>
       </c>
       <c r="H6" t="n">
-        <v>115219.3759278403</v>
+        <v>101811.8391471282</v>
       </c>
       <c r="I6" t="n">
-        <v>115219.3759278403</v>
+        <v>101811.8391471282</v>
       </c>
       <c r="J6" t="n">
-        <v>115219.3759278403</v>
+        <v>101811.8391471281</v>
       </c>
       <c r="K6" t="n">
-        <v>115219.3759278403</v>
+        <v>101811.8391471281</v>
       </c>
       <c r="L6" t="n">
-        <v>115219.3759278403</v>
+        <v>101811.8391471281</v>
       </c>
       <c r="M6" t="n">
-        <v>88572.63365809346</v>
+        <v>75165.09687738144</v>
       </c>
       <c r="N6" t="n">
-        <v>115219.3759278403</v>
+        <v>101811.8391471282</v>
       </c>
       <c r="O6" t="n">
-        <v>115219.3759278403</v>
+        <v>101811.8391471282</v>
       </c>
       <c r="P6" t="n">
-        <v>115219.3759278403</v>
+        <v>101811.8391471282</v>
       </c>
     </row>
   </sheetData>
@@ -26755,7 +26755,7 @@
         <v>461.9435448719196</v>
       </c>
       <c r="H3" t="n">
-        <v>461.9435448719197</v>
+        <v>461.9435448719196</v>
       </c>
       <c r="I3" t="n">
         <v>461.9435448719196</v>
@@ -26807,7 +26807,7 @@
         <v>106.927426003382</v>
       </c>
       <c r="H4" t="n">
-        <v>106.9274260033821</v>
+        <v>106.927426003382</v>
       </c>
       <c r="I4" t="n">
         <v>106.927426003382</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>106.927426003382</v>
+        <v>106.9274260033819</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1.063183126685966e-13</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>106.9274260033821</v>
+        <v>106.9274260033819</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>106.927426003382</v>
+        <v>106.9274260033819</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>1.063183126685966e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -31281,7 +31281,7 @@
         <v>1.253570605168206</v>
       </c>
       <c r="H5" t="n">
-        <v>12.83812996017889</v>
+        <v>12.8381299601789</v>
       </c>
       <c r="I5" t="n">
         <v>48.32828075574732</v>
@@ -31290,7 +31290,7 @@
         <v>106.3952381503951</v>
       </c>
       <c r="K5" t="n">
-        <v>159.4588818671653</v>
+        <v>159.4588818671654</v>
       </c>
       <c r="L5" t="n">
         <v>197.8228432750819</v>
@@ -31311,7 +31311,7 @@
         <v>135.3715226888582</v>
       </c>
       <c r="R5" t="n">
-        <v>78.74460452689742</v>
+        <v>78.7446045268974</v>
       </c>
       <c r="S5" t="n">
         <v>28.56574016527053</v>
@@ -31357,7 +31357,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.6707194044539139</v>
+        <v>0.670719404453914</v>
       </c>
       <c r="H6" t="n">
         <v>6.477737406173327</v>
@@ -31439,7 +31439,7 @@
         <v>0.5623086177690995</v>
       </c>
       <c r="H7" t="n">
-        <v>4.999434801619816</v>
+        <v>4.999434801619815</v>
       </c>
       <c r="I7" t="n">
         <v>16.91015370527438</v>
@@ -31478,7 +31478,7 @@
         <v>2.402591366831606</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03067137915104183</v>
+        <v>0.03067137915104182</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31843,19 +31843,19 @@
         <v>93.87477264232095</v>
       </c>
       <c r="K12" t="n">
-        <v>160.4469385995232</v>
+        <v>134.395403</v>
       </c>
       <c r="L12" t="n">
         <v>215.7407093290979</v>
       </c>
       <c r="M12" t="n">
-        <v>245.5081090773498</v>
+        <v>217.905937417812</v>
       </c>
       <c r="N12" t="n">
         <v>234.9855952846319</v>
       </c>
       <c r="O12" t="n">
-        <v>182.7524387660996</v>
+        <v>236.4061460251606</v>
       </c>
       <c r="P12" t="n">
         <v>189.7367741191852</v>
@@ -32080,19 +32080,19 @@
         <v>93.87477264232095</v>
       </c>
       <c r="K15" t="n">
-        <v>134.395403</v>
+        <v>160.4469385995232</v>
       </c>
       <c r="L15" t="n">
         <v>215.7407093290979</v>
       </c>
       <c r="M15" t="n">
-        <v>245.5081090773499</v>
+        <v>245.5081090773498</v>
       </c>
       <c r="N15" t="n">
-        <v>234.985595284632</v>
+        <v>181.331888025571</v>
       </c>
       <c r="O15" t="n">
-        <v>208.8039743656229</v>
+        <v>236.4061460251606</v>
       </c>
       <c r="P15" t="n">
         <v>189.7367741191852</v>
@@ -32244,7 +32244,7 @@
         <v>293.0579133964843</v>
       </c>
       <c r="M17" t="n">
-        <v>326.0833948683074</v>
+        <v>326.0833948683073</v>
       </c>
       <c r="N17" t="n">
         <v>330.6051630100582</v>
@@ -32256,7 +32256,7 @@
         <v>267.0474740985453</v>
       </c>
       <c r="Q17" t="n">
-        <v>200.5415315830654</v>
+        <v>200.5415315830653</v>
       </c>
       <c r="R17" t="n">
         <v>116.6535123640632</v>
@@ -32268,7 +32268,7 @@
         <v>8.129277860007347</v>
       </c>
       <c r="U17" t="n">
-        <v>0.148564758149763</v>
+        <v>0.1485647581497629</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,25 +32305,25 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9936144172716762</v>
+        <v>0.9936144172716761</v>
       </c>
       <c r="H18" t="n">
-        <v>9.59622345101856</v>
+        <v>9.596223451018558</v>
       </c>
       <c r="I18" t="n">
-        <v>34.209970068345</v>
+        <v>34.20997006834499</v>
       </c>
       <c r="J18" t="n">
         <v>93.87477264232096</v>
       </c>
       <c r="K18" t="n">
-        <v>134.395403</v>
+        <v>160.4469385995233</v>
       </c>
       <c r="L18" t="n">
-        <v>215.740709329098</v>
+        <v>215.7407093290979</v>
       </c>
       <c r="M18" t="n">
-        <v>217.9059374178121</v>
+        <v>245.5081090773499</v>
       </c>
       <c r="N18" t="n">
         <v>234.985595284632</v>
@@ -32332,22 +32332,22 @@
         <v>236.4061460251606</v>
       </c>
       <c r="P18" t="n">
-        <v>189.7367741191853</v>
+        <v>136.0830668601242</v>
       </c>
       <c r="Q18" t="n">
         <v>126.8340087731354</v>
       </c>
       <c r="R18" t="n">
-        <v>61.69125303025375</v>
+        <v>61.69125303025374</v>
       </c>
       <c r="S18" t="n">
-        <v>18.45595200502433</v>
+        <v>18.45595200502432</v>
       </c>
       <c r="T18" t="n">
-        <v>4.004963374880132</v>
+        <v>4.004963374880131</v>
       </c>
       <c r="U18" t="n">
-        <v>0.06536936955734715</v>
+        <v>0.06536936955734714</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,10 +32384,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.8330129497690353</v>
+        <v>0.8330129497690352</v>
       </c>
       <c r="H19" t="n">
-        <v>7.40624240794652</v>
+        <v>7.406242407946519</v>
       </c>
       <c r="I19" t="n">
         <v>25.05097125305427</v>
@@ -32396,7 +32396,7 @@
         <v>58.89401554867079</v>
       </c>
       <c r="K19" t="n">
-        <v>96.78095907316609</v>
+        <v>96.78095907316607</v>
       </c>
       <c r="L19" t="n">
         <v>123.8463070956619</v>
@@ -32414,7 +32414,7 @@
         <v>100.7491298520658</v>
       </c>
       <c r="Q19" t="n">
-        <v>69.75347527565987</v>
+        <v>69.75347527565985</v>
       </c>
       <c r="R19" t="n">
         <v>37.45529135961498</v>
@@ -32463,13 +32463,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.857059476872038</v>
+        <v>1.857059476872037</v>
       </c>
       <c r="H20" t="n">
         <v>19.01861036751576</v>
       </c>
       <c r="I20" t="n">
-        <v>71.5942854821093</v>
+        <v>71.59428548210929</v>
       </c>
       <c r="J20" t="n">
         <v>157.6156017751682</v>
@@ -32481,31 +32481,31 @@
         <v>293.0579133964843</v>
       </c>
       <c r="M20" t="n">
-        <v>326.0833948683074</v>
+        <v>326.0833948683073</v>
       </c>
       <c r="N20" t="n">
-        <v>330.6051630100583</v>
+        <v>330.6051630100582</v>
       </c>
       <c r="O20" t="n">
-        <v>312.8936299338238</v>
+        <v>312.8936299338237</v>
       </c>
       <c r="P20" t="n">
         <v>267.0474740985453</v>
       </c>
       <c r="Q20" t="n">
-        <v>200.5415315830654</v>
+        <v>200.5415315830653</v>
       </c>
       <c r="R20" t="n">
         <v>116.6535123640632</v>
       </c>
       <c r="S20" t="n">
-        <v>42.3177428292216</v>
+        <v>42.31774282922159</v>
       </c>
       <c r="T20" t="n">
-        <v>8.129277860007349</v>
+        <v>8.129277860007347</v>
       </c>
       <c r="U20" t="n">
-        <v>0.148564758149763</v>
+        <v>0.1485647581497629</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9936144172716763</v>
+        <v>0.9936144172716761</v>
       </c>
       <c r="H21" t="n">
-        <v>9.59622345101856</v>
+        <v>9.596223451018558</v>
       </c>
       <c r="I21" t="n">
-        <v>34.209970068345</v>
+        <v>34.20997006834499</v>
       </c>
       <c r="J21" t="n">
-        <v>93.87477264232098</v>
+        <v>93.87477264232096</v>
       </c>
       <c r="K21" t="n">
-        <v>160.4469385995233</v>
+        <v>134.395403</v>
       </c>
       <c r="L21" t="n">
-        <v>215.740709329098</v>
+        <v>215.7407093290979</v>
       </c>
       <c r="M21" t="n">
-        <v>245.50810907735</v>
+        <v>245.5081090773499</v>
       </c>
       <c r="N21" t="n">
-        <v>181.331888025571</v>
+        <v>207.3834236250943</v>
       </c>
       <c r="O21" t="n">
         <v>236.4061460251606</v>
       </c>
       <c r="P21" t="n">
-        <v>189.7367741191853</v>
+        <v>189.7367741191852</v>
       </c>
       <c r="Q21" t="n">
         <v>126.8340087731354</v>
       </c>
       <c r="R21" t="n">
-        <v>61.69125303025375</v>
+        <v>61.69125303025374</v>
       </c>
       <c r="S21" t="n">
-        <v>18.45595200502433</v>
+        <v>18.45595200502432</v>
       </c>
       <c r="T21" t="n">
-        <v>4.004963374880132</v>
+        <v>4.004963374880131</v>
       </c>
       <c r="U21" t="n">
-        <v>0.06536936955734715</v>
+        <v>0.06536936955734714</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,19 +32621,19 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.8330129497690354</v>
+        <v>0.8330129497690352</v>
       </c>
       <c r="H22" t="n">
-        <v>7.406242407946521</v>
+        <v>7.406242407946519</v>
       </c>
       <c r="I22" t="n">
         <v>25.05097125305427</v>
       </c>
       <c r="J22" t="n">
-        <v>58.8940155486708</v>
+        <v>58.89401554867079</v>
       </c>
       <c r="K22" t="n">
-        <v>96.7809590731661</v>
+        <v>96.78095907316607</v>
       </c>
       <c r="L22" t="n">
         <v>123.8463070956619</v>
@@ -32645,13 +32645,13 @@
         <v>127.4736998496562</v>
       </c>
       <c r="O22" t="n">
-        <v>117.7425940273543</v>
+        <v>117.7425940273542</v>
       </c>
       <c r="P22" t="n">
         <v>100.7491298520658</v>
       </c>
       <c r="Q22" t="n">
-        <v>69.75347527565987</v>
+        <v>69.75347527565985</v>
       </c>
       <c r="R22" t="n">
         <v>37.45529135961498</v>
@@ -33040,10 +33040,10 @@
         <v>234.985595284632</v>
       </c>
       <c r="O27" t="n">
-        <v>208.8039743656228</v>
+        <v>236.4061460251606</v>
       </c>
       <c r="P27" t="n">
-        <v>189.7367741191852</v>
+        <v>162.1346024596475</v>
       </c>
       <c r="Q27" t="n">
         <v>126.8340087731354</v>
@@ -33274,13 +33274,13 @@
         <v>245.5081090773499</v>
       </c>
       <c r="N30" t="n">
-        <v>181.331888025571</v>
+        <v>234.985595284632</v>
       </c>
       <c r="O30" t="n">
         <v>236.4061460251606</v>
       </c>
       <c r="P30" t="n">
-        <v>189.7367741191852</v>
+        <v>136.0830668601242</v>
       </c>
       <c r="Q30" t="n">
         <v>126.8340087731354</v>
@@ -33748,10 +33748,10 @@
         <v>245.5081090773499</v>
       </c>
       <c r="N36" t="n">
-        <v>181.331888025571</v>
+        <v>234.985595284632</v>
       </c>
       <c r="O36" t="n">
-        <v>236.4061460251606</v>
+        <v>182.7524387660996</v>
       </c>
       <c r="P36" t="n">
         <v>189.7367741191852</v>
@@ -33982,7 +33982,7 @@
         <v>215.7407093290979</v>
       </c>
       <c r="M39" t="n">
-        <v>191.8544018182889</v>
+        <v>245.5081090773499</v>
       </c>
       <c r="N39" t="n">
         <v>234.985595284632</v>
@@ -33991,7 +33991,7 @@
         <v>236.4061460251606</v>
       </c>
       <c r="P39" t="n">
-        <v>189.7367741191852</v>
+        <v>136.0830668601242</v>
       </c>
       <c r="Q39" t="n">
         <v>126.8340087731354</v>
@@ -34219,13 +34219,13 @@
         <v>215.7407093290979</v>
       </c>
       <c r="M42" t="n">
-        <v>191.8544018182889</v>
+        <v>245.5081090773499</v>
       </c>
       <c r="N42" t="n">
         <v>234.985595284632</v>
       </c>
       <c r="O42" t="n">
-        <v>236.4061460251606</v>
+        <v>182.7524387660996</v>
       </c>
       <c r="P42" t="n">
         <v>189.7367741191852</v>
@@ -34371,7 +34371,7 @@
         <v>157.6156017751682</v>
       </c>
       <c r="K44" t="n">
-        <v>236.2249294311618</v>
+        <v>236.2249294311616</v>
       </c>
       <c r="L44" t="n">
         <v>293.0579133964843</v>
@@ -34450,10 +34450,10 @@
         <v>93.87477264232096</v>
       </c>
       <c r="K45" t="n">
-        <v>134.395403</v>
+        <v>160.4469385995233</v>
       </c>
       <c r="L45" t="n">
-        <v>188.1385376695602</v>
+        <v>215.7407093290979</v>
       </c>
       <c r="M45" t="n">
         <v>245.5081090773499</v>
@@ -34462,7 +34462,7 @@
         <v>234.985595284632</v>
       </c>
       <c r="O45" t="n">
-        <v>236.4061460251606</v>
+        <v>182.7524387660996</v>
       </c>
       <c r="P45" t="n">
         <v>189.7367741191852</v>
@@ -35491,19 +35491,19 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>26.05153559952322</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>80.65018904372056</v>
       </c>
       <c r="M12" t="n">
-        <v>106.927426003382</v>
+        <v>79.32525434384414</v>
       </c>
       <c r="N12" t="n">
         <v>106.927426003382</v>
       </c>
       <c r="O12" t="n">
-        <v>43.72110043276628</v>
+        <v>97.37480769182724</v>
       </c>
       <c r="P12" t="n">
         <v>59.11172689021325</v>
@@ -35728,7 +35728,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>26.05153559952322</v>
       </c>
       <c r="L15" t="n">
         <v>80.65018904372056</v>
@@ -35737,10 +35737,10 @@
         <v>106.927426003382</v>
       </c>
       <c r="N15" t="n">
-        <v>106.927426003382</v>
+        <v>53.27371874432102</v>
       </c>
       <c r="O15" t="n">
-        <v>69.77263603228958</v>
+        <v>97.37480769182724</v>
       </c>
       <c r="P15" t="n">
         <v>59.11172689021325</v>
@@ -35886,19 +35886,19 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>21.63732466230556</v>
+        <v>21.63732466230553</v>
       </c>
       <c r="L17" t="n">
-        <v>63.18565880074675</v>
+        <v>63.18565880074669</v>
       </c>
       <c r="M17" t="n">
-        <v>101.4958174717165</v>
+        <v>101.4958174717164</v>
       </c>
       <c r="N17" t="n">
         <v>106.927426003382</v>
       </c>
       <c r="O17" t="n">
-        <v>88.54787379767916</v>
+        <v>88.5478737976791</v>
       </c>
       <c r="P17" t="n">
         <v>41.59530323715745</v>
@@ -35965,22 +35965,22 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>26.05153559952325</v>
       </c>
       <c r="L18" t="n">
-        <v>80.65018904372062</v>
+        <v>80.65018904372059</v>
       </c>
       <c r="M18" t="n">
-        <v>79.32525434384422</v>
+        <v>106.927426003382</v>
       </c>
       <c r="N18" t="n">
         <v>106.927426003382</v>
       </c>
       <c r="O18" t="n">
-        <v>97.3748076918273</v>
+        <v>97.37480769182727</v>
       </c>
       <c r="P18" t="n">
-        <v>59.11172689021328</v>
+        <v>5.458019631152243</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36053,7 +36053,7 @@
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>2.980293996053831</v>
+        <v>2.980293996053817</v>
       </c>
       <c r="O19" t="n">
         <v>0</v>
@@ -36123,22 +36123,22 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>21.63732466230559</v>
+        <v>21.63732466230553</v>
       </c>
       <c r="L20" t="n">
-        <v>63.18565880074675</v>
+        <v>63.18565880074669</v>
       </c>
       <c r="M20" t="n">
-        <v>101.4958174717165</v>
+        <v>101.4958174717164</v>
       </c>
       <c r="N20" t="n">
-        <v>106.9274260033821</v>
+        <v>106.927426003382</v>
       </c>
       <c r="O20" t="n">
-        <v>88.54787379767922</v>
+        <v>88.5478737976791</v>
       </c>
       <c r="P20" t="n">
-        <v>41.59530323715751</v>
+        <v>41.59530323715745</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -36202,22 +36202,22 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>26.05153559952328</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>80.65018904372064</v>
+        <v>80.65018904372059</v>
       </c>
       <c r="M21" t="n">
-        <v>106.9274260033821</v>
+        <v>106.927426003382</v>
       </c>
       <c r="N21" t="n">
-        <v>53.27371874432105</v>
+        <v>79.32525434384432</v>
       </c>
       <c r="O21" t="n">
-        <v>97.37480769182733</v>
+        <v>97.37480769182727</v>
       </c>
       <c r="P21" t="n">
-        <v>59.1117268902133</v>
+        <v>59.11172689021325</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36290,7 +36290,7 @@
         <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>2.980293996053845</v>
+        <v>2.980293996053817</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
@@ -36448,7 +36448,7 @@
         <v>106.927426003382</v>
       </c>
       <c r="N24" t="n">
-        <v>53.27371874432102</v>
+        <v>53.27371874432105</v>
       </c>
       <c r="O24" t="n">
         <v>97.37480769182727</v>
@@ -36688,10 +36688,10 @@
         <v>106.927426003382</v>
       </c>
       <c r="O27" t="n">
-        <v>69.77263603228951</v>
+        <v>97.37480769182727</v>
       </c>
       <c r="P27" t="n">
-        <v>59.11172689021325</v>
+        <v>31.50955523067554</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36922,13 +36922,13 @@
         <v>106.927426003382</v>
       </c>
       <c r="N30" t="n">
-        <v>53.27371874432102</v>
+        <v>106.927426003382</v>
       </c>
       <c r="O30" t="n">
         <v>97.37480769182727</v>
       </c>
       <c r="P30" t="n">
-        <v>59.11172689021325</v>
+        <v>5.458019631152243</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37159,7 +37159,7 @@
         <v>106.927426003382</v>
       </c>
       <c r="N33" t="n">
-        <v>53.27371874432102</v>
+        <v>53.27371874432105</v>
       </c>
       <c r="O33" t="n">
         <v>97.37480769182727</v>
@@ -37396,10 +37396,10 @@
         <v>106.927426003382</v>
       </c>
       <c r="N36" t="n">
-        <v>53.27371874432102</v>
+        <v>106.927426003382</v>
       </c>
       <c r="O36" t="n">
-        <v>97.37480769182727</v>
+        <v>43.72110043276628</v>
       </c>
       <c r="P36" t="n">
         <v>59.11172689021325</v>
@@ -37630,7 +37630,7 @@
         <v>80.65018904372059</v>
       </c>
       <c r="M39" t="n">
-        <v>53.27371874432105</v>
+        <v>106.927426003382</v>
       </c>
       <c r="N39" t="n">
         <v>106.927426003382</v>
@@ -37639,7 +37639,7 @@
         <v>97.37480769182727</v>
       </c>
       <c r="P39" t="n">
-        <v>59.11172689021325</v>
+        <v>5.458019631152243</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37867,13 +37867,13 @@
         <v>80.65018904372059</v>
       </c>
       <c r="M42" t="n">
-        <v>53.27371874432105</v>
+        <v>106.927426003382</v>
       </c>
       <c r="N42" t="n">
         <v>106.927426003382</v>
       </c>
       <c r="O42" t="n">
-        <v>97.37480769182727</v>
+        <v>43.72110043276628</v>
       </c>
       <c r="P42" t="n">
         <v>59.11172689021325</v>
@@ -38019,7 +38019,7 @@
         <v>0</v>
       </c>
       <c r="K44" t="n">
-        <v>21.63732466230578</v>
+        <v>21.63732466230553</v>
       </c>
       <c r="L44" t="n">
         <v>63.18565880074669</v>
@@ -38098,10 +38098,10 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>26.05153559952325</v>
       </c>
       <c r="L45" t="n">
-        <v>53.04801738418286</v>
+        <v>80.65018904372059</v>
       </c>
       <c r="M45" t="n">
         <v>106.927426003382</v>
@@ -38110,7 +38110,7 @@
         <v>106.927426003382</v>
       </c>
       <c r="O45" t="n">
-        <v>97.37480769182727</v>
+        <v>43.72110043276628</v>
       </c>
       <c r="P45" t="n">
         <v>59.11172689021325</v>
